--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业销售费用.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业销售费用.xlsx
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.89999999999998</v>
+        <v>85.09999999999997</v>
       </c>
       <c r="C4" t="n">
         <v>391.2</v>
@@ -2499,7 +2499,7 @@
         <v>5.8</v>
       </c>
       <c r="W4" t="n">
-        <v>6.699999999999996</v>
+        <v>6.399999999999997</v>
       </c>
       <c r="X4" t="n">
         <v>27.1</v>
@@ -2526,7 +2526,7 @@
         <v>7.1</v>
       </c>
       <c r="AF4" t="n">
-        <v>25.10000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="AG4" t="n">
         <v>104.5</v>
@@ -2553,7 +2553,7 @@
         <v>7.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.8</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="AP4" t="n">
         <v>1.3</v>
@@ -2625,7 +2625,7 @@
         <v>5.2</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="BN4" t="n">
         <v>45.3</v>
@@ -2634,7 +2634,7 @@
         <v>15.3</v>
       </c>
       <c r="BP4" t="n">
-        <v>8</v>
+        <v>4.100000000000023</v>
       </c>
       <c r="BQ4" t="n">
         <v>189.1</v>
@@ -2661,7 +2661,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="BY4" t="n">
-        <v>5.099999999999998</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="BZ4" t="n">
         <v>24.1</v>
@@ -2688,7 +2688,7 @@
         <v>6.8</v>
       </c>
       <c r="CH4" t="n">
-        <v>33.90000000000001</v>
+        <v>31.50000000000003</v>
       </c>
       <c r="CI4" t="n">
         <v>147.8</v>
@@ -2697,7 +2697,7 @@
         <v>5.9</v>
       </c>
       <c r="CK4" t="n">
-        <v>2.9</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="CL4" t="n">
         <v>10.2</v>
@@ -2715,7 +2715,7 @@
         <v>4.5</v>
       </c>
       <c r="CQ4" t="n">
-        <v>55.30000000000001</v>
+        <v>49.40000000000002</v>
       </c>
       <c r="CR4" t="n">
         <v>227.6</v>
@@ -2778,7 +2778,7 @@
         <v>-2.4</v>
       </c>
       <c r="DL4" t="n">
-        <v>62.39999999999998</v>
+        <v>61.69999999999996</v>
       </c>
       <c r="DM4" t="n">
         <v>260.7</v>
@@ -2796,7 +2796,7 @@
         <v>7.3</v>
       </c>
       <c r="DR4" t="n">
-        <v>3.700000000000003</v>
+        <v>1.800000000000012</v>
       </c>
       <c r="DS4" t="n">
         <v>514.8</v>
@@ -2805,7 +2805,7 @@
         <v>11.5</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.1999999999999815</v>
+        <v>0.099999999999973</v>
       </c>
       <c r="DV4" t="n">
         <v>53.8</v>
@@ -2832,7 +2832,7 @@
         <v>10.3</v>
       </c>
       <c r="ED4" t="n">
-        <v>5.399999999999999</v>
+        <v>5</v>
       </c>
       <c r="EE4" t="n">
         <v>22.1</v>
@@ -2992,7 +2992,7 @@
         <v>18.5</v>
       </c>
       <c r="E5" t="n">
-        <v>26.69999999999999</v>
+        <v>25.39999999999998</v>
       </c>
       <c r="F5" t="n">
         <v>140.8</v>
@@ -3001,7 +3001,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.299999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>22.3</v>
@@ -3010,7 +3010,7 @@
         <v>5.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="L5" t="n">
         <v>0.9</v>
@@ -3028,7 +3028,7 @@
         <v>4.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>192.2000000000021</v>
+        <v>157.5000000000041</v>
       </c>
       <c r="R5" t="n">
         <v>11801.2</v>
@@ -3037,7 +3037,7 @@
         <v>11.8</v>
       </c>
       <c r="T5" t="n">
-        <v>10.90000000000009</v>
+        <v>5.000000000000083</v>
       </c>
       <c r="U5" t="n">
         <v>967.7</v>
@@ -3055,7 +3055,7 @@
         <v>-0.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>42.79999999999973</v>
+        <v>23.59999999999963</v>
       </c>
       <c r="AA5" t="n">
         <v>1851.8</v>
@@ -3064,7 +3064,7 @@
         <v>40.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7000000000000011</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="AD5" t="n">
         <v>77.5</v>
@@ -3082,7 +3082,7 @@
         <v>9.9</v>
       </c>
       <c r="AI5" t="n">
-        <v>187.3000000000011</v>
+        <v>146.1000000000008</v>
       </c>
       <c r="AJ5" t="n">
         <v>12323.7</v>
@@ -3091,7 +3091,7 @@
         <v>11.3</v>
       </c>
       <c r="AL5" t="n">
-        <v>3.099999999999998</v>
+        <v>2.799999999999997</v>
       </c>
       <c r="AM5" t="n">
         <v>17.2</v>
@@ -3109,7 +3109,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AR5" t="n">
-        <v>3.099999999999991</v>
+        <v>2.899999999999981</v>
       </c>
       <c r="AS5" t="n">
         <v>143.5</v>
@@ -3127,7 +3127,7 @@
         <v>14</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.199999999999999</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="AY5" t="n">
         <v>20.5</v>
@@ -3136,7 +3136,7 @@
         <v>-1.4</v>
       </c>
       <c r="BA5" t="n">
-        <v>20.09999999999999</v>
+        <v>20.09999999999998</v>
       </c>
       <c r="BB5" t="n">
         <v>101.9</v>
@@ -3172,7 +3172,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BM5" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="BN5" t="n">
         <v>56.7</v>
@@ -3181,7 +3181,7 @@
         <v>11.2</v>
       </c>
       <c r="BP5" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="BQ5" t="n">
         <v>234</v>
@@ -3190,7 +3190,7 @@
         <v>-4.8</v>
       </c>
       <c r="BS5" t="n">
-        <v>13.7</v>
+        <v>11.9</v>
       </c>
       <c r="BT5" t="n">
         <v>74.59999999999999</v>
@@ -3199,7 +3199,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="BV5" t="n">
-        <v>28.30000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="BW5" t="n">
         <v>159.2</v>
@@ -3289,7 +3289,7 @@
         <v>10.5</v>
       </c>
       <c r="CZ5" t="n">
-        <v>4.300000000000026</v>
+        <v>2.700000000000038</v>
       </c>
       <c r="DA5" t="n">
         <v>169</v>
@@ -3298,7 +3298,7 @@
         <v>6.2</v>
       </c>
       <c r="DC5" t="n">
-        <v>17.80000000000003</v>
+        <v>6.400000000000048</v>
       </c>
       <c r="DD5" t="n">
         <v>532</v>
@@ -3307,7 +3307,7 @@
         <v>8.1</v>
       </c>
       <c r="DF5" t="n">
-        <v>79.5</v>
+        <v>74.40000000000003</v>
       </c>
       <c r="DG5" t="n">
         <v>363.4</v>
@@ -3334,7 +3334,7 @@
         <v>5.9</v>
       </c>
       <c r="DO5" t="n">
-        <v>8.000000000000018</v>
+        <v>7.500000000000036</v>
       </c>
       <c r="DP5" t="n">
         <v>103.7</v>
@@ -3343,7 +3343,7 @@
         <v>6.8</v>
       </c>
       <c r="DR5" t="n">
-        <v>5.199999999999989</v>
+        <v>1.499999999999986</v>
       </c>
       <c r="DS5" t="n">
         <v>654.2</v>
@@ -3361,7 +3361,7 @@
         <v>4.3</v>
       </c>
       <c r="DX5" t="n">
-        <v>117.6999999999999</v>
+        <v>110.2999999999999</v>
       </c>
       <c r="DY5" t="n">
         <v>637.8</v>
@@ -3370,7 +3370,7 @@
         <v>12</v>
       </c>
       <c r="EA5" t="n">
-        <v>51.40000000000001</v>
+        <v>38.40000000000001</v>
       </c>
       <c r="EB5" t="n">
         <v>264.8</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.5</v>
+        <v>73.39999999999998</v>
       </c>
       <c r="C6" t="n">
         <v>604.1</v>
@@ -3566,7 +3566,7 @@
         <v>-15.4</v>
       </c>
       <c r="N6" t="n">
-        <v>86.60000000000002</v>
+        <v>84.60000000000002</v>
       </c>
       <c r="O6" t="n">
         <v>600.8</v>
@@ -3575,7 +3575,7 @@
         <v>4.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2100.199999999999</v>
+        <v>1907.999999999997</v>
       </c>
       <c r="R6" t="n">
         <v>14392.6</v>
@@ -3584,7 +3584,7 @@
         <v>11.5</v>
       </c>
       <c r="T6" t="n">
-        <v>178</v>
+        <v>167.0999999999999</v>
       </c>
       <c r="U6" t="n">
         <v>1166.7</v>
@@ -3593,7 +3593,7 @@
         <v>4.8</v>
       </c>
       <c r="W6" t="n">
-        <v>6.600000000000001</v>
+        <v>4.799999999999997</v>
       </c>
       <c r="X6" t="n">
         <v>43.1</v>
@@ -3602,7 +3602,7 @@
         <v>-0.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>262.2</v>
+        <v>219.4000000000003</v>
       </c>
       <c r="AA6" t="n">
         <v>2292.5</v>
@@ -3611,7 +3611,7 @@
         <v>39.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.59999999999999</v>
+        <v>13.89999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>92.2</v>
@@ -3620,7 +3620,7 @@
         <v>5.4</v>
       </c>
       <c r="AF6" t="n">
-        <v>22.69999999999999</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
         <v>159.3</v>
@@ -3629,7 +3629,7 @@
         <v>9.1</v>
       </c>
       <c r="AI6" t="n">
-        <v>2199.4</v>
+        <v>2012.099999999999</v>
       </c>
       <c r="AJ6" t="n">
         <v>15028.3</v>
@@ -3647,7 +3647,7 @@
         <v>9.9</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.1999999999999999</v>
+        <v>0.0999999999999998</v>
       </c>
       <c r="AP6" t="n">
         <v>1.3</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>29.19999999999999</v>
+        <v>26.1</v>
       </c>
       <c r="AS6" t="n">
         <v>174.9</v>
@@ -3665,7 +3665,7 @@
         <v>4.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>28.30000000000001</v>
+        <v>27.09999999999999</v>
       </c>
       <c r="AV6" t="n">
         <v>195</v>
@@ -3692,7 +3692,7 @@
         <v>0.2</v>
       </c>
       <c r="BD6" t="n">
-        <v>58.39999999999998</v>
+        <v>57.09999999999997</v>
       </c>
       <c r="BE6" t="n">
         <v>371.1</v>
@@ -3764,7 +3764,7 @@
         <v>7.1</v>
       </c>
       <c r="CB6" t="n">
-        <v>185.2</v>
+        <v>140.5</v>
       </c>
       <c r="CC6" t="n">
         <v>1186.3</v>
@@ -3773,7 +3773,7 @@
         <v>7.5</v>
       </c>
       <c r="CE6" t="n">
-        <v>22.10000000000002</v>
+        <v>20.60000000000005</v>
       </c>
       <c r="CF6" t="n">
         <v>140.9</v>
@@ -3791,7 +3791,7 @@
         <v>4.3</v>
       </c>
       <c r="CK6" t="n">
-        <v>2.399999999999999</v>
+        <v>2.299999999999999</v>
       </c>
       <c r="CL6" t="n">
         <v>16.1</v>
@@ -3800,7 +3800,7 @@
         <v>-20.7</v>
       </c>
       <c r="CN6" t="n">
-        <v>36</v>
+        <v>35.09999999999997</v>
       </c>
       <c r="CO6" t="n">
         <v>242.2</v>
@@ -3809,7 +3809,7 @@
         <v>4</v>
       </c>
       <c r="CQ6" t="n">
-        <v>51.60000000000002</v>
+        <v>50.60000000000009</v>
       </c>
       <c r="CR6" t="n">
         <v>346.9</v>
@@ -3818,7 +3818,7 @@
         <v>6</v>
       </c>
       <c r="CT6" t="n">
-        <v>179.8</v>
+        <v>152.1000000000001</v>
       </c>
       <c r="CU6" t="n">
         <v>1070.8</v>
@@ -3827,7 +3827,7 @@
         <v>4</v>
       </c>
       <c r="CW6" t="n">
-        <v>97.60000000000002</v>
+        <v>91.80000000000003</v>
       </c>
       <c r="CX6" t="n">
         <v>644.2</v>
@@ -3836,7 +3836,7 @@
         <v>9.1</v>
       </c>
       <c r="CZ6" t="n">
-        <v>30.59999999999999</v>
+        <v>26.29999999999997</v>
       </c>
       <c r="DA6" t="n">
         <v>206.1</v>
@@ -3845,7 +3845,7 @@
         <v>5.1</v>
       </c>
       <c r="DC6" t="n">
-        <v>94</v>
+        <v>76.19999999999997</v>
       </c>
       <c r="DD6" t="n">
         <v>658.7</v>
@@ -3863,7 +3863,7 @@
         <v>-2.5</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.100000000000001</v>
+        <v>0.700000000000002</v>
       </c>
       <c r="DJ6" t="n">
         <v>6.1</v>
@@ -3872,7 +3872,7 @@
         <v>-7.6</v>
       </c>
       <c r="DL6" t="n">
-        <v>55</v>
+        <v>49.69999999999993</v>
       </c>
       <c r="DM6" t="n">
         <v>398.1</v>
@@ -3881,7 +3881,7 @@
         <v>5.7</v>
       </c>
       <c r="DO6" t="n">
-        <v>18.80000000000001</v>
+        <v>10.79999999999999</v>
       </c>
       <c r="DP6" t="n">
         <v>127.2</v>
@@ -3890,7 +3890,7 @@
         <v>1.8</v>
       </c>
       <c r="DR6" t="n">
-        <v>120</v>
+        <v>114.8</v>
       </c>
       <c r="DS6" t="n">
         <v>800.7</v>
@@ -3899,7 +3899,7 @@
         <v>10.9</v>
       </c>
       <c r="DU6" t="n">
-        <v>12</v>
+        <v>11.99999999999998</v>
       </c>
       <c r="DV6" t="n">
         <v>80</v>
@@ -3926,7 +3926,7 @@
         <v>7.9</v>
       </c>
       <c r="ED6" t="n">
-        <v>5.700000000000003</v>
+        <v>4.400000000000002</v>
       </c>
       <c r="EE6" t="n">
         <v>34.5</v>
@@ -4095,7 +4095,7 @@
         <v>11.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.200000000000003</v>
+        <v>0.9000000000000059</v>
       </c>
       <c r="I7" t="n">
         <v>31.9</v>
@@ -4185,7 +4185,7 @@
         <v>11.3</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.3000000000000012</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="AM7" t="n">
         <v>24.5</v>
@@ -4194,7 +4194,7 @@
         <v>9.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.09999999999999992</v>
       </c>
       <c r="AP7" t="n">
         <v>1.5</v>
@@ -4230,7 +4230,7 @@
         <v>3.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>11.19999999999999</v>
+        <v>10.49999999999997</v>
       </c>
       <c r="BB7" t="n">
         <v>136.8</v>
@@ -4248,7 +4248,7 @@
         <v>6</v>
       </c>
       <c r="BG7" t="n">
-        <v>10.30000000000001</v>
+        <v>10.10000000000001</v>
       </c>
       <c r="BH7" t="n">
         <v>78.5</v>
@@ -4257,7 +4257,7 @@
         <v>10.4</v>
       </c>
       <c r="BJ7" t="n">
-        <v>154.3</v>
+        <v>153.1000000000001</v>
       </c>
       <c r="BK7" t="n">
         <v>1354.7</v>
@@ -4266,7 +4266,7 @@
         <v>9.6</v>
       </c>
       <c r="BM7" t="n">
-        <v>11.59999999999999</v>
+        <v>10.39999999999999</v>
       </c>
       <c r="BN7" t="n">
         <v>78.90000000000001</v>
@@ -4293,7 +4293,7 @@
         <v>10.8</v>
       </c>
       <c r="BV7" t="n">
-        <v>5.099999999999987</v>
+        <v>3.899999999999998</v>
       </c>
       <c r="BW7" t="n">
         <v>224</v>
@@ -4302,7 +4302,7 @@
         <v>9.9</v>
       </c>
       <c r="BY7" t="n">
-        <v>1.299999999999997</v>
+        <v>0.199999999999992</v>
       </c>
       <c r="BZ7" t="n">
         <v>39.9</v>
@@ -4464,7 +4464,7 @@
         <v>10.8</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.8000000000000114</v>
+        <v>0.7000000000000242</v>
       </c>
       <c r="EB7" t="n">
         <v>377.2</v>
@@ -4642,7 +4642,7 @@
         <v>10.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.499999999999993</v>
+        <v>0.2999999999999898</v>
       </c>
       <c r="I8" t="n">
         <v>33.4</v>
@@ -4651,7 +4651,7 @@
         <v>5.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1000000000000001</v>
+        <v>2.359223927328458e-16</v>
       </c>
       <c r="L8" t="n">
         <v>1.1</v>
@@ -4669,7 +4669,7 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.1000000000022</v>
+        <v>151.3000000000011</v>
       </c>
       <c r="R8" t="n">
         <v>19155.6</v>
@@ -4678,7 +4678,7 @@
         <v>11.9</v>
       </c>
       <c r="T8" t="n">
-        <v>15.5000000000002</v>
+        <v>9.100000000000309</v>
       </c>
       <c r="U8" t="n">
         <v>1548.4</v>
@@ -4687,7 +4687,7 @@
         <v>4.9</v>
       </c>
       <c r="W8" t="n">
-        <v>6.400000000000006</v>
+        <v>5.600000000000009</v>
       </c>
       <c r="X8" t="n">
         <v>57.7</v>
@@ -4696,7 +4696,7 @@
         <v>0.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>63.19999999999959</v>
+        <v>34.39999999999935</v>
       </c>
       <c r="AA8" t="n">
         <v>3060</v>
@@ -4705,7 +4705,7 @@
         <v>39.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>13.90000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AD8" t="n">
         <v>122.6</v>
@@ -4723,7 +4723,7 @@
         <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>183.6999999999953</v>
+        <v>165.5999999999936</v>
       </c>
       <c r="AJ8" t="n">
         <v>20004.6</v>
@@ -4732,7 +4732,7 @@
         <v>11.4</v>
       </c>
       <c r="AL8" t="n">
-        <v>1</v>
+        <v>0.6999999999999988</v>
       </c>
       <c r="AM8" t="n">
         <v>27.4</v>
@@ -4759,7 +4759,7 @@
         <v>3.9</v>
       </c>
       <c r="AU8" t="n">
-        <v>27.19999999999999</v>
+        <v>25</v>
       </c>
       <c r="AV8" t="n">
         <v>257.9</v>
@@ -4831,7 +4831,7 @@
         <v>-1</v>
       </c>
       <c r="BS8" t="n">
-        <v>15.70000000000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="BT8" t="n">
         <v>124</v>
@@ -4849,7 +4849,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BY8" t="n">
-        <v>1.700000000000003</v>
+        <v>0.4000000000000061</v>
       </c>
       <c r="BZ8" t="n">
         <v>45.6</v>
@@ -4867,7 +4867,7 @@
         <v>5.8</v>
       </c>
       <c r="CE8" t="n">
-        <v>21.79999999999998</v>
+        <v>8.80000000000001</v>
       </c>
       <c r="CF8" t="n">
         <v>200.9</v>
@@ -4885,7 +4885,7 @@
         <v>4.2</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.5</v>
+        <v>0.399999999999999</v>
       </c>
       <c r="CL8" t="n">
         <v>21.1</v>
@@ -4975,7 +4975,7 @@
         <v>6</v>
       </c>
       <c r="DO8" t="n">
-        <v>21.19999999999999</v>
+        <v>17.90000000000001</v>
       </c>
       <c r="DP8" t="n">
         <v>166.3</v>
@@ -4993,7 +4993,7 @@
         <v>10.8</v>
       </c>
       <c r="DU8" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="DV8" t="n">
         <v>104.2</v>
@@ -5011,7 +5011,7 @@
         <v>10.3</v>
       </c>
       <c r="EA8" t="n">
-        <v>46.29999999999995</v>
+        <v>45.49999999999994</v>
       </c>
       <c r="EB8" t="n">
         <v>435.4</v>
@@ -5180,7 +5180,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>25.90000000000001</v>
+        <v>25.1</v>
       </c>
       <c r="F9" t="n">
         <v>264.8</v>
@@ -5207,7 +5207,7 @@
         <v>-36.8</v>
       </c>
       <c r="N9" t="n">
-        <v>82.09999999999991</v>
+        <v>76.59999999999991</v>
       </c>
       <c r="O9" t="n">
         <v>889.5</v>
@@ -5216,7 +5216,7 @@
         <v>4.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2199.599999999999</v>
+        <v>2030.499999999997</v>
       </c>
       <c r="R9" t="n">
         <v>21639.7</v>
@@ -5225,7 +5225,7 @@
         <v>11.5</v>
       </c>
       <c r="T9" t="n">
-        <v>190.5</v>
+        <v>174.9999999999998</v>
       </c>
       <c r="U9" t="n">
         <v>1753.2</v>
@@ -5243,7 +5243,7 @@
         <v>0.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>322.6999999999998</v>
+        <v>259.5000000000002</v>
       </c>
       <c r="AA9" t="n">
         <v>3502.9</v>
@@ -5261,7 +5261,7 @@
         <v>5.4</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>3.5</v>
       </c>
       <c r="AG9" t="n">
         <v>215.9</v>
@@ -5270,7 +5270,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AI9" t="n">
-        <v>2289.800000000003</v>
+        <v>2106.100000000008</v>
       </c>
       <c r="AJ9" t="n">
         <v>22595.8</v>
@@ -5279,7 +5279,7 @@
         <v>11</v>
       </c>
       <c r="AL9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM9" t="n">
         <v>31.7</v>
@@ -5297,7 +5297,7 @@
         <v>-4.5</v>
       </c>
       <c r="AR9" t="n">
-        <v>27.09999999999999</v>
+        <v>25.99999999999996</v>
       </c>
       <c r="AS9" t="n">
         <v>262.8</v>
@@ -5324,7 +5324,7 @@
         <v>5.8</v>
       </c>
       <c r="BA9" t="n">
-        <v>18.30000000000001</v>
+        <v>9.400000000000011</v>
       </c>
       <c r="BB9" t="n">
         <v>174.9</v>
@@ -5333,7 +5333,7 @@
         <v>2.8</v>
       </c>
       <c r="BD9" t="n">
-        <v>5.200000000000053</v>
+        <v>4.500000000000128</v>
       </c>
       <c r="BE9" t="n">
         <v>538.1</v>
@@ -5342,7 +5342,7 @@
         <v>5.2</v>
       </c>
       <c r="BG9" t="n">
-        <v>10.59999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="BH9" t="n">
         <v>103.6</v>
@@ -5360,7 +5360,7 @@
         <v>10.1</v>
       </c>
       <c r="BM9" t="n">
-        <v>12.19999999999999</v>
+        <v>10.89999999999997</v>
       </c>
       <c r="BN9" t="n">
         <v>104.6</v>
@@ -5369,7 +5369,7 @@
         <v>4.7</v>
       </c>
       <c r="BP9" t="n">
-        <v>35.89999999999998</v>
+        <v>21.10000000000003</v>
       </c>
       <c r="BQ9" t="n">
         <v>431.1</v>
@@ -5387,7 +5387,7 @@
         <v>8.9</v>
       </c>
       <c r="BV9" t="n">
-        <v>32.30000000000001</v>
+        <v>31.70000000000001</v>
       </c>
       <c r="BW9" t="n">
         <v>294.7</v>
@@ -5396,7 +5396,7 @@
         <v>7.7</v>
       </c>
       <c r="BY9" t="n">
-        <v>7.399999999999999</v>
+        <v>5.699999999999996</v>
       </c>
       <c r="BZ9" t="n">
         <v>50.7</v>
@@ -5432,7 +5432,7 @@
         <v>5.9</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.800000000000001</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="CL9" t="n">
         <v>23.5</v>
@@ -5459,7 +5459,7 @@
         <v>5.5</v>
       </c>
       <c r="CT9" t="n">
-        <v>180.9000000000001</v>
+        <v>175.2000000000003</v>
       </c>
       <c r="CU9" t="n">
         <v>1724.4</v>
@@ -5477,7 +5477,7 @@
         <v>9</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.699999999999989</v>
+        <v>0.8999999999999777</v>
       </c>
       <c r="DA9" t="n">
         <v>304.6</v>
@@ -5486,7 +5486,7 @@
         <v>4.5</v>
       </c>
       <c r="DC9" t="n">
-        <v>84.20000000000005</v>
+        <v>81.60000000000005</v>
       </c>
       <c r="DD9" t="n">
         <v>999</v>
@@ -5495,7 +5495,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="DF9" t="n">
-        <v>57.89999999999998</v>
+        <v>43.89999999999998</v>
       </c>
       <c r="DG9" t="n">
         <v>661.4</v>
@@ -5504,7 +5504,7 @@
         <v>-1.1</v>
       </c>
       <c r="DI9" t="n">
-        <v>1.1</v>
+        <v>0.7999999999999985</v>
       </c>
       <c r="DJ9" t="n">
         <v>9</v>
@@ -5549,7 +5549,7 @@
         <v>4.2</v>
       </c>
       <c r="DX9" t="n">
-        <v>105.8999999999999</v>
+        <v>100</v>
       </c>
       <c r="DY9" t="n">
         <v>1145.3</v>
@@ -5567,7 +5567,7 @@
         <v>10.3</v>
       </c>
       <c r="ED9" t="n">
-        <v>6</v>
+        <v>4.299999999999997</v>
       </c>
       <c r="EE9" t="n">
         <v>52.5</v>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.300000000000068</v>
+        <v>2.100000000000136</v>
       </c>
       <c r="C10" t="n">
         <v>982.7</v>
@@ -5736,7 +5736,7 @@
         <v>10.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>2.399999999999992</v>
       </c>
       <c r="I10" t="n">
         <v>40.6</v>
@@ -5781,7 +5781,7 @@
         <v>4.5</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>6.100000000000009</v>
       </c>
       <c r="X10" t="n">
         <v>71.59999999999999</v>
@@ -5853,7 +5853,7 @@
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.199999999999989</v>
+        <v>1.099999999999966</v>
       </c>
       <c r="AV10" t="n">
         <v>315</v>
@@ -5862,7 +5862,7 @@
         <v>9.4</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.500000000000007</v>
+        <v>2.70000000000001</v>
       </c>
       <c r="AY10" t="n">
         <v>35.3</v>
@@ -5898,7 +5898,7 @@
         <v>11.6</v>
       </c>
       <c r="BJ10" t="n">
-        <v>19.10000000000042</v>
+        <v>15.10000000000062</v>
       </c>
       <c r="BK10" t="n">
         <v>1971.6</v>
@@ -5952,7 +5952,7 @@
         <v>-5.7</v>
       </c>
       <c r="CB10" t="n">
-        <v>15.19999999999999</v>
+        <v>7.69999999999999</v>
       </c>
       <c r="CC10" t="n">
         <v>2021.8</v>
@@ -5961,7 +5961,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="CE10" t="n">
-        <v>2.099999999999969</v>
+        <v>0.09999999999993703</v>
       </c>
       <c r="CF10" t="n">
         <v>246.3</v>
@@ -5970,7 +5970,7 @@
         <v>5.5</v>
       </c>
       <c r="CH10" t="n">
-        <v>3.700000000000038</v>
+        <v>2.500000000000092</v>
       </c>
       <c r="CI10" t="n">
         <v>354.7</v>
@@ -5988,7 +5988,7 @@
         <v>-14.8</v>
       </c>
       <c r="CN10" t="n">
-        <v>38.80000000000001</v>
+        <v>37.30000000000001</v>
       </c>
       <c r="CO10" t="n">
         <v>395.3</v>
@@ -6015,7 +6015,7 @@
         <v>7.6</v>
       </c>
       <c r="CW10" t="n">
-        <v>98</v>
+        <v>87.90000000000009</v>
       </c>
       <c r="CX10" t="n">
         <v>1058.3</v>
@@ -6060,7 +6060,7 @@
         <v>-7.3</v>
       </c>
       <c r="DL10" t="n">
-        <v>55.30000000000007</v>
+        <v>52.19999999999999</v>
       </c>
       <c r="DM10" t="n">
         <v>631.2</v>
@@ -6087,7 +6087,7 @@
         <v>12.1</v>
       </c>
       <c r="DU10" t="n">
-        <v>2.19999999999999</v>
+        <v>0.899999999999989</v>
       </c>
       <c r="DV10" t="n">
         <v>129.6</v>
@@ -6105,7 +6105,7 @@
         <v>10.5</v>
       </c>
       <c r="EA10" t="n">
-        <v>6</v>
+        <v>4.499999999999936</v>
       </c>
       <c r="EB10" t="n">
         <v>550.2</v>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.99999999999997</v>
+        <v>27.6999999999999</v>
       </c>
       <c r="C11" t="n">
         <v>1089.8</v>
@@ -6274,7 +6274,7 @@
         <v>14.7</v>
       </c>
       <c r="E11" t="n">
-        <v>18.19999999999993</v>
+        <v>16.99999999999992</v>
       </c>
       <c r="F11" t="n">
         <v>325.4</v>
@@ -6301,7 +6301,7 @@
         <v>-38.1</v>
       </c>
       <c r="N11" t="n">
-        <v>88.39999999999986</v>
+        <v>70.39999999999968</v>
       </c>
       <c r="O11" t="n">
         <v>1078.1</v>
@@ -6310,7 +6310,7 @@
         <v>4.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>425.5999999999976</v>
+        <v>258.4999999999953</v>
       </c>
       <c r="R11" t="n">
         <v>26631.2</v>
@@ -6346,7 +6346,7 @@
         <v>33.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.09999999999999</v>
+        <v>11.49999999999997</v>
       </c>
       <c r="AD11" t="n">
         <v>165.5</v>
@@ -6355,7 +6355,7 @@
         <v>4.7</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>2.800000000000011</v>
       </c>
       <c r="AG11" t="n">
         <v>264.8</v>
@@ -6364,7 +6364,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AI11" t="n">
-        <v>442.3000000000034</v>
+        <v>252.7000000000085</v>
       </c>
       <c r="AJ11" t="n">
         <v>27806.8</v>
@@ -6391,7 +6391,7 @@
         <v>3.7</v>
       </c>
       <c r="AR11" t="n">
-        <v>25.19999999999999</v>
+        <v>24.69999999999996</v>
       </c>
       <c r="AS11" t="n">
         <v>321.4</v>
@@ -6400,7 +6400,7 @@
         <v>4.1</v>
       </c>
       <c r="AU11" t="n">
-        <v>13.30000000000001</v>
+        <v>11.10000000000002</v>
       </c>
       <c r="AV11" t="n">
         <v>347.1</v>
@@ -6418,7 +6418,7 @@
         <v>4.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>11.5</v>
+        <v>7.900000000000002</v>
       </c>
       <c r="BB11" t="n">
         <v>215.2</v>
@@ -6436,7 +6436,7 @@
         <v>4.9</v>
       </c>
       <c r="BG11" t="n">
-        <v>8.100000000000012</v>
+        <v>7.000000000000004</v>
       </c>
       <c r="BH11" t="n">
         <v>128.4</v>
@@ -6445,7 +6445,7 @@
         <v>11.7</v>
       </c>
       <c r="BJ11" t="n">
-        <v>25.49999999999952</v>
+        <v>6.3999999999991</v>
       </c>
       <c r="BK11" t="n">
         <v>2172.7</v>
@@ -6454,7 +6454,7 @@
         <v>5.3</v>
       </c>
       <c r="BM11" t="n">
-        <v>17.69999999999998</v>
+        <v>15.49999999999996</v>
       </c>
       <c r="BN11" t="n">
         <v>132.5</v>
@@ -6463,7 +6463,7 @@
         <v>4.7</v>
       </c>
       <c r="BP11" t="n">
-        <v>38.5</v>
+        <v>24.39999999999998</v>
       </c>
       <c r="BQ11" t="n">
         <v>530.5</v>
@@ -6472,7 +6472,7 @@
         <v>0.4</v>
       </c>
       <c r="BS11" t="n">
-        <v>9.399999999999981</v>
+        <v>7.199999999999942</v>
       </c>
       <c r="BT11" t="n">
         <v>173.3</v>
@@ -6481,7 +6481,7 @@
         <v>8.4</v>
       </c>
       <c r="BV11" t="n">
-        <v>20.20000000000004</v>
+        <v>18.30000000000006</v>
       </c>
       <c r="BW11" t="n">
         <v>363.6</v>
@@ -6499,7 +6499,7 @@
         <v>-5.5</v>
       </c>
       <c r="CB11" t="n">
-        <v>16.59999999999991</v>
+        <v>1.399999999999919</v>
       </c>
       <c r="CC11" t="n">
         <v>2266.5</v>
@@ -6508,7 +6508,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="CE11" t="n">
-        <v>8.500000000000046</v>
+        <v>6.400000000000077</v>
       </c>
       <c r="CF11" t="n">
         <v>274.7</v>
@@ -6517,7 +6517,7 @@
         <v>5.9</v>
       </c>
       <c r="CH11" t="n">
-        <v>37</v>
+        <v>33.29999999999996</v>
       </c>
       <c r="CI11" t="n">
         <v>390.5</v>
@@ -6526,7 +6526,7 @@
         <v>4.4</v>
       </c>
       <c r="CK11" t="n">
-        <v>2.100000000000009</v>
+        <v>1.600000000000013</v>
       </c>
       <c r="CL11" t="n">
         <v>29.1</v>
@@ -6544,7 +6544,7 @@
         <v>3.7</v>
       </c>
       <c r="CQ11" t="n">
-        <v>15.40000000000015</v>
+        <v>13.1000000000002</v>
       </c>
       <c r="CR11" t="n">
         <v>594.6</v>
@@ -6553,7 +6553,7 @@
         <v>6.1</v>
       </c>
       <c r="CT11" t="n">
-        <v>121.8000000000001</v>
+        <v>93.8000000000003</v>
       </c>
       <c r="CU11" t="n">
         <v>2164.2</v>
@@ -6589,7 +6589,7 @@
         <v>9.1</v>
       </c>
       <c r="DF11" t="n">
-        <v>75</v>
+        <v>54.39999999999998</v>
       </c>
       <c r="DG11" t="n">
         <v>812</v>
@@ -6598,7 +6598,7 @@
         <v>0.9</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.2000000000000008</v>
+        <v>0.1000000000000018</v>
       </c>
       <c r="DJ11" t="n">
         <v>11.4</v>
@@ -6616,7 +6616,7 @@
         <v>6.5</v>
       </c>
       <c r="DO11" t="n">
-        <v>11.89999999999997</v>
+        <v>9.89999999999997</v>
       </c>
       <c r="DP11" t="n">
         <v>225.3</v>
@@ -6625,7 +6625,7 @@
         <v>-0.7</v>
       </c>
       <c r="DR11" t="n">
-        <v>127.5</v>
+        <v>101.8</v>
       </c>
       <c r="DS11" t="n">
         <v>1454.5</v>
@@ -6634,7 +6634,7 @@
         <v>12.5</v>
       </c>
       <c r="DU11" t="n">
-        <v>3.200000000000019</v>
+        <v>1.000000000000029</v>
       </c>
       <c r="DV11" t="n">
         <v>145.3</v>
@@ -6643,7 +6643,7 @@
         <v>4.5</v>
       </c>
       <c r="DX11" t="n">
-        <v>30.39999999999999</v>
+        <v>20.4999999999999</v>
       </c>
       <c r="DY11" t="n">
         <v>1394.5</v>
@@ -6652,7 +6652,7 @@
         <v>10.2</v>
       </c>
       <c r="EA11" t="n">
-        <v>7.800000000000011</v>
+        <v>1.800000000000011</v>
       </c>
       <c r="EB11" t="n">
         <v>606.8</v>
@@ -6830,7 +6830,7 @@
         <v>12.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.000000000000004</v>
+        <v>0.800000000000008</v>
       </c>
       <c r="I12" t="n">
         <v>49</v>
@@ -6848,7 +6848,7 @@
         <v>-36.4</v>
       </c>
       <c r="N12" t="n">
-        <v>90.00000000000014</v>
+        <v>1.600000000000279</v>
       </c>
       <c r="O12" t="n">
         <v>1172.1</v>
@@ -6857,7 +6857,7 @@
         <v>4.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1325.700000000001</v>
+        <v>900.1000000000033</v>
       </c>
       <c r="R12" t="n">
         <v>29601.8</v>
@@ -6866,7 +6866,7 @@
         <v>10.6</v>
       </c>
       <c r="T12" t="n">
-        <v>116.0999999999999</v>
+        <v>97.39999999999959</v>
       </c>
       <c r="U12" t="n">
         <v>2357.1</v>
@@ -6884,7 +6884,7 @@
         <v>-1.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>305.0000000000004</v>
+        <v>276.2000000000012</v>
       </c>
       <c r="AA12" t="n">
         <v>4803.4</v>
@@ -6893,7 +6893,7 @@
         <v>31.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>13.20000000000001</v>
+        <v>1.100000000000019</v>
       </c>
       <c r="AD12" t="n">
         <v>177.6</v>
@@ -6911,7 +6911,7 @@
         <v>8.1</v>
       </c>
       <c r="AI12" t="n">
-        <v>1386.999999999999</v>
+        <v>944.6999999999957</v>
       </c>
       <c r="AJ12" t="n">
         <v>30924.4</v>
@@ -6920,7 +6920,7 @@
         <v>10.3</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.4</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="AM12" t="n">
         <v>43.9</v>
@@ -6956,7 +6956,7 @@
         <v>7.7</v>
       </c>
       <c r="AX12" t="n">
-        <v>5.3</v>
+        <v>3.400000000000009</v>
       </c>
       <c r="AY12" t="n">
         <v>47.8</v>
@@ -6965,7 +6965,7 @@
         <v>9.1</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="BB12" t="n">
         <v>227.1</v>
@@ -6974,7 +6974,7 @@
         <v>2.4</v>
       </c>
       <c r="BD12" t="n">
-        <v>42.39999999999993</v>
+        <v>41.99999999999984</v>
       </c>
       <c r="BE12" t="n">
         <v>726.3</v>
@@ -6992,7 +6992,7 @@
         <v>12.1</v>
       </c>
       <c r="BJ12" t="n">
-        <v>83.10000000000025</v>
+        <v>57.60000000000073</v>
       </c>
       <c r="BK12" t="n">
         <v>2399.7</v>
@@ -7001,7 +7001,7 @@
         <v>3.1</v>
       </c>
       <c r="BM12" t="n">
-        <v>20.7</v>
+        <v>3.000000000000018</v>
       </c>
       <c r="BN12" t="n">
         <v>163.6</v>
@@ -7010,7 +7010,7 @@
         <v>3.2</v>
       </c>
       <c r="BP12" t="n">
-        <v>42.3</v>
+        <v>3.799999999999997</v>
       </c>
       <c r="BQ12" t="n">
         <v>575.8</v>
@@ -7046,7 +7046,7 @@
         <v>-4.6</v>
       </c>
       <c r="CB12" t="n">
-        <v>91.00000000000011</v>
+        <v>74.4000000000002</v>
       </c>
       <c r="CC12" t="n">
         <v>2517.9</v>
@@ -7073,7 +7073,7 @@
         <v>5.3</v>
       </c>
       <c r="CK12" t="n">
-        <v>5.2</v>
+        <v>3.099999999999991</v>
       </c>
       <c r="CL12" t="n">
         <v>35.6</v>
@@ -7082,7 +7082,7 @@
         <v>-10.3</v>
       </c>
       <c r="CN12" t="n">
-        <v>34.09999999999997</v>
+        <v>5.199999999999942</v>
       </c>
       <c r="CO12" t="n">
         <v>464.2</v>
@@ -7100,7 +7100,7 @@
         <v>6.2</v>
       </c>
       <c r="CT12" t="n">
-        <v>324.8</v>
+        <v>202.9999999999999</v>
       </c>
       <c r="CU12" t="n">
         <v>2504</v>
@@ -7109,7 +7109,7 @@
         <v>6.7</v>
       </c>
       <c r="CW12" t="n">
-        <v>63.5000000000001</v>
+        <v>47.60000000000019</v>
       </c>
       <c r="CX12" t="n">
         <v>1292.6</v>
@@ -7118,7 +7118,7 @@
         <v>8.9</v>
       </c>
       <c r="CZ12" t="n">
-        <v>22.7</v>
+        <v>22.50000000000001</v>
       </c>
       <c r="DA12" t="n">
         <v>411.8</v>
@@ -7127,7 +7127,7 @@
         <v>3.8</v>
       </c>
       <c r="DC12" t="n">
-        <v>83.39999999999991</v>
+        <v>25.79999999999975</v>
       </c>
       <c r="DD12" t="n">
         <v>1271.3</v>
@@ -7145,7 +7145,7 @@
         <v>2</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.3</v>
+        <v>0.0999999999999992</v>
       </c>
       <c r="DJ12" t="n">
         <v>12.4</v>
@@ -7154,7 +7154,7 @@
         <v>-8.1</v>
       </c>
       <c r="DL12" t="n">
-        <v>48.90000000000002</v>
+        <v>43.80000000000011</v>
       </c>
       <c r="DM12" t="n">
         <v>762.1</v>
@@ -7163,7 +7163,7 @@
         <v>6.8</v>
       </c>
       <c r="DO12" t="n">
-        <v>32.6</v>
+        <v>20.70000000000003</v>
       </c>
       <c r="DP12" t="n">
         <v>269.5</v>
@@ -7181,7 +7181,7 @@
         <v>13.1</v>
       </c>
       <c r="DU12" t="n">
-        <v>4.699999999999992</v>
+        <v>1.499999999999973</v>
       </c>
       <c r="DV12" t="n">
         <v>163</v>
@@ -7190,7 +7190,7 @@
         <v>3.8</v>
       </c>
       <c r="DX12" t="n">
-        <v>102.5</v>
+        <v>72.10000000000001</v>
       </c>
       <c r="DY12" t="n">
         <v>1548.9</v>
@@ -7199,7 +7199,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="EA12" t="n">
-        <v>30.89999999999998</v>
+        <v>23.09999999999997</v>
       </c>
       <c r="EB12" t="n">
         <v>668.5</v>
@@ -7208,7 +7208,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="ED12" t="n">
-        <v>3.599999999999994</v>
+        <v>3.399999999999984</v>
       </c>
       <c r="EE12" t="n">
         <v>70.3</v>
@@ -7359,7 +7359,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.9</v>
+        <v>73.80000000000001</v>
       </c>
       <c r="C13" t="n">
         <v>173.2</v>
@@ -7368,7 +7368,7 @@
         <v>12.3</v>
       </c>
       <c r="E13" t="n">
-        <v>28.1</v>
+        <v>24.99999999999995</v>
       </c>
       <c r="F13" t="n">
         <v>52.1</v>
@@ -7377,7 +7377,7 @@
         <v>7.6</v>
       </c>
       <c r="H13" t="n">
-        <v>4.399999999999999</v>
+        <v>2.399999999999995</v>
       </c>
       <c r="I13" t="n">
         <v>7.2</v>
@@ -7386,7 +7386,7 @@
         <v>7.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="L13" t="n">
         <v>0.2</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>92.90000000000001</v>
+        <v>2.899999999999864</v>
       </c>
       <c r="O13" t="n">
         <v>190.1</v>
@@ -7404,7 +7404,7 @@
         <v>6.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>2366.2</v>
+        <v>1040.499999999999</v>
       </c>
       <c r="R13" t="n">
         <v>4319.3</v>
@@ -7413,7 +7413,7 @@
         <v>4.9</v>
       </c>
       <c r="T13" t="n">
-        <v>189.3</v>
+        <v>73.20000000000012</v>
       </c>
       <c r="U13" t="n">
         <v>316.6</v>
@@ -7422,7 +7422,7 @@
         <v>-0.3</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.100000000000009</v>
       </c>
       <c r="X13" t="n">
         <v>12.7</v>
@@ -7431,7 +7431,7 @@
         <v>7.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>369.0000000000001</v>
+        <v>63.99999999999972</v>
       </c>
       <c r="AA13" t="n">
         <v>771.3</v>
@@ -7440,7 +7440,7 @@
         <v>9.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>14.2</v>
+        <v>0.9999999999999893</v>
       </c>
       <c r="AD13" t="n">
         <v>27.1</v>
@@ -7449,7 +7449,7 @@
         <v>7.1</v>
       </c>
       <c r="AF13" t="n">
-        <v>23.1</v>
+        <v>16.39999999999999</v>
       </c>
       <c r="AG13" t="n">
         <v>41.9</v>
@@ -7458,7 +7458,7 @@
         <v>6.3</v>
       </c>
       <c r="AI13" t="n">
-        <v>2476</v>
+        <v>1089.000000000001</v>
       </c>
       <c r="AJ13" t="n">
         <v>4520.7</v>
@@ -7467,7 +7467,7 @@
         <v>4.9</v>
       </c>
       <c r="AL13" t="n">
-        <v>3.299999999999999</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="AM13" t="n">
         <v>7.1</v>
@@ -7476,7 +7476,7 @@
         <v>20.3</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.3999999999999997</v>
       </c>
       <c r="AP13" t="n">
         <v>1</v>
@@ -7485,7 +7485,7 @@
         <v>11.1</v>
       </c>
       <c r="AR13" t="n">
-        <v>27.59999999999999</v>
+        <v>5.799999999999979</v>
       </c>
       <c r="AS13" t="n">
         <v>50.7</v>
@@ -7494,7 +7494,7 @@
         <v>7.9</v>
       </c>
       <c r="AU13" t="n">
-        <v>32.3</v>
+        <v>21.20000000000001</v>
       </c>
       <c r="AV13" t="n">
         <v>56</v>
@@ -7512,7 +7512,7 @@
         <v>13.2</v>
       </c>
       <c r="BA13" t="n">
-        <v>17.6</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BB13" t="n">
         <v>30.2</v>
@@ -7521,7 +7521,7 @@
         <v>6</v>
       </c>
       <c r="BD13" t="n">
-        <v>60.60000000000001</v>
+        <v>18.20000000000008</v>
       </c>
       <c r="BE13" t="n">
         <v>106</v>
@@ -7530,7 +7530,7 @@
         <v>3.2</v>
       </c>
       <c r="BG13" t="n">
-        <v>10.7</v>
+        <v>7.600000000000012</v>
       </c>
       <c r="BH13" t="n">
         <v>23.6</v>
@@ -7539,7 +7539,7 @@
         <v>3.1</v>
       </c>
       <c r="BJ13" t="n">
-        <v>196.9</v>
+        <v>113.7999999999998</v>
       </c>
       <c r="BK13" t="n">
         <v>324.1</v>
@@ -7557,7 +7557,7 @@
         <v>1.4</v>
       </c>
       <c r="BP13" t="n">
-        <v>51.39999999999999</v>
+        <v>9.099999999999994</v>
       </c>
       <c r="BQ13" t="n">
         <v>88.40000000000001</v>
@@ -7566,7 +7566,7 @@
         <v>9.4</v>
       </c>
       <c r="BS13" t="n">
-        <v>16.4</v>
+        <v>10.3</v>
       </c>
       <c r="BT13" t="n">
         <v>32.8</v>
@@ -7575,7 +7575,7 @@
         <v>2.2</v>
       </c>
       <c r="BV13" t="n">
-        <v>33</v>
+        <v>21.20000000000002</v>
       </c>
       <c r="BW13" t="n">
         <v>66.09999999999999</v>
@@ -7584,7 +7584,7 @@
         <v>-0.2</v>
       </c>
       <c r="BY13" t="n">
-        <v>5.900000000000002</v>
+        <v>3.399999999999991</v>
       </c>
       <c r="BZ13" t="n">
         <v>9.800000000000001</v>
@@ -7593,7 +7593,7 @@
         <v>-12.5</v>
       </c>
       <c r="CB13" t="n">
-        <v>206.1999999999999</v>
+        <v>115.1999999999998</v>
       </c>
       <c r="CC13" t="n">
         <v>339.8</v>
@@ -7602,7 +7602,7 @@
         <v>5.5</v>
       </c>
       <c r="CE13" t="n">
-        <v>26.2</v>
+        <v>20.40000000000002</v>
       </c>
       <c r="CF13" t="n">
         <v>41.2</v>
@@ -7611,7 +7611,7 @@
         <v>2.5</v>
       </c>
       <c r="CH13" t="n">
-        <v>39.4</v>
+        <v>14</v>
       </c>
       <c r="CI13" t="n">
         <v>62.8</v>
@@ -7629,7 +7629,7 @@
         <v>7.7</v>
       </c>
       <c r="CN13" t="n">
-        <v>36.09999999999999</v>
+        <v>2.000000000000014</v>
       </c>
       <c r="CO13" t="n">
         <v>66.90000000000001</v>
@@ -7638,7 +7638,7 @@
         <v>6.2</v>
       </c>
       <c r="CQ13" t="n">
-        <v>49.59999999999999</v>
+        <v>35.90000000000009</v>
       </c>
       <c r="CR13" t="n">
         <v>85.8</v>
@@ -7656,7 +7656,7 @@
         <v>8.5</v>
       </c>
       <c r="CW13" t="n">
-        <v>103</v>
+        <v>39.4999999999999</v>
       </c>
       <c r="CX13" t="n">
         <v>185.8</v>
@@ -7665,7 +7665,7 @@
         <v>4.7</v>
       </c>
       <c r="CZ13" t="n">
-        <v>34.7</v>
+        <v>12</v>
       </c>
       <c r="DA13" t="n">
         <v>60.5</v>
@@ -7674,7 +7674,7 @@
         <v>4</v>
       </c>
       <c r="DC13" t="n">
-        <v>111.3</v>
+        <v>27.90000000000009</v>
       </c>
       <c r="DD13" t="n">
         <v>215.1</v>
@@ -7683,7 +7683,7 @@
         <v>6.9</v>
       </c>
       <c r="DF13" t="n">
-        <v>76.80000000000001</v>
+        <v>27.30000000000001</v>
       </c>
       <c r="DG13" t="n">
         <v>135.2</v>
@@ -7692,7 +7692,7 @@
         <v>8.6</v>
       </c>
       <c r="DI13" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="DJ13" t="n">
         <v>2.1</v>
@@ -7701,7 +7701,7 @@
         <v>23.5</v>
       </c>
       <c r="DL13" t="n">
-        <v>60.7</v>
+        <v>11.79999999999998</v>
       </c>
       <c r="DM13" t="n">
         <v>113.5</v>
@@ -7719,7 +7719,7 @@
         <v>3.4</v>
       </c>
       <c r="DR13" t="n">
-        <v>122</v>
+        <v>42.40000000000001</v>
       </c>
       <c r="DS13" t="n">
         <v>228.8</v>
@@ -7728,7 +7728,7 @@
         <v>10.5</v>
       </c>
       <c r="DU13" t="n">
-        <v>12.8</v>
+        <v>8.100000000000009</v>
       </c>
       <c r="DV13" t="n">
         <v>23.9</v>
@@ -7737,7 +7737,7 @@
         <v>5.8</v>
       </c>
       <c r="DX13" t="n">
-        <v>134.4</v>
+        <v>31.90000000000001</v>
       </c>
       <c r="DY13" t="n">
         <v>245.7</v>
@@ -7746,7 +7746,7 @@
         <v>-1.2</v>
       </c>
       <c r="EA13" t="n">
-        <v>52.30000000000001</v>
+        <v>21.40000000000003</v>
       </c>
       <c r="EB13" t="n">
         <v>98.09999999999999</v>
@@ -7755,7 +7755,7 @@
         <v>6.1</v>
       </c>
       <c r="ED13" t="n">
-        <v>6.1</v>
+        <v>2.500000000000006</v>
       </c>
       <c r="EE13" t="n">
         <v>10.1</v>
@@ -8462,7 +8462,7 @@
         <v>14.8</v>
       </c>
       <c r="E15" t="n">
-        <v>28.00000000000001</v>
+        <v>27.80000000000001</v>
       </c>
       <c r="F15" t="n">
         <v>116.6</v>
@@ -8561,7 +8561,7 @@
         <v>7.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.1000000000000023</v>
+        <v>1.290634266126744e-15</v>
       </c>
       <c r="AM15" t="n">
         <v>13.5</v>
@@ -8570,7 +8570,7 @@
         <v>7.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.2999999999999997</v>
       </c>
       <c r="AP15" t="n">
         <v>2</v>
@@ -8588,7 +8588,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AU15" t="n">
-        <v>31.70000000000002</v>
+        <v>31.10000000000003</v>
       </c>
       <c r="AV15" t="n">
         <v>123.2</v>
@@ -8597,7 +8597,7 @@
         <v>2.6</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="AY15" t="n">
         <v>12.1</v>
@@ -8615,7 +8615,7 @@
         <v>6.5</v>
       </c>
       <c r="BD15" t="n">
-        <v>59.20000000000002</v>
+        <v>55.70000000000003</v>
       </c>
       <c r="BE15" t="n">
         <v>231.3</v>
@@ -8624,7 +8624,7 @@
         <v>1.7</v>
       </c>
       <c r="BG15" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="BH15" t="n">
         <v>46.3</v>
@@ -8633,7 +8633,7 @@
         <v>4</v>
       </c>
       <c r="BJ15" t="n">
-        <v>9.799999999999898</v>
+        <v>5.899999999999807</v>
       </c>
       <c r="BK15" t="n">
         <v>701.2</v>
@@ -8642,7 +8642,7 @@
         <v>-5.8</v>
       </c>
       <c r="BM15" t="n">
-        <v>11.4</v>
+        <v>9.9</v>
       </c>
       <c r="BN15" t="n">
         <v>45.7</v>
@@ -8813,7 +8813,7 @@
         <v>3.8</v>
       </c>
       <c r="DR15" t="n">
-        <v>5.300000000000011</v>
+        <v>2.700000000000017</v>
       </c>
       <c r="DS15" t="n">
         <v>515.2</v>
@@ -8840,7 +8840,7 @@
         <v>1.1</v>
       </c>
       <c r="EA15" t="n">
-        <v>54.40000000000001</v>
+        <v>50.50000000000004</v>
       </c>
       <c r="EB15" t="n">
         <v>214.6</v>
@@ -9018,7 +9018,7 @@
         <v>10.2</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7000000000000028</v>
+        <v>0.300000000000006</v>
       </c>
       <c r="I16" t="n">
         <v>19.8</v>
@@ -9027,7 +9027,7 @@
         <v>4.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="L16" t="n">
         <v>0.8</v>
@@ -9045,7 +9045,7 @@
         <v>3.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>196.0000000000023</v>
+        <v>79.3000000000043</v>
       </c>
       <c r="R16" t="n">
         <v>11846.9</v>
@@ -9063,7 +9063,7 @@
         <v>0.6</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="X16" t="n">
         <v>34.1</v>
@@ -9072,7 +9072,7 @@
         <v>3.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>50.30000000000018</v>
+        <v>18.10000000000036</v>
       </c>
       <c r="AA16" t="n">
         <v>2089.4</v>
@@ -9099,7 +9099,7 @@
         <v>6.2</v>
       </c>
       <c r="AI16" t="n">
-        <v>209.0999999999976</v>
+        <v>98.19999999999661</v>
       </c>
       <c r="AJ16" t="n">
         <v>12372.5</v>
@@ -9108,7 +9108,7 @@
         <v>6.7</v>
       </c>
       <c r="AL16" t="n">
-        <v>3.5</v>
+        <v>3.399999999999998</v>
       </c>
       <c r="AM16" t="n">
         <v>17.2</v>
@@ -9153,7 +9153,7 @@
         <v>6</v>
       </c>
       <c r="BA16" t="n">
-        <v>17.89999999999999</v>
+        <v>16.19999999999998</v>
       </c>
       <c r="BB16" t="n">
         <v>85.2</v>
@@ -9180,7 +9180,7 @@
         <v>5.3</v>
       </c>
       <c r="BJ16" t="n">
-        <v>192.0999999999999</v>
+        <v>182.3</v>
       </c>
       <c r="BK16" t="n">
         <v>885.8</v>
@@ -9207,7 +9207,7 @@
         <v>4.3</v>
       </c>
       <c r="BS16" t="n">
-        <v>1.40000000000002</v>
+        <v>0.5000000000000302</v>
       </c>
       <c r="BT16" t="n">
         <v>83.40000000000001</v>
@@ -9216,7 +9216,7 @@
         <v>4.8</v>
       </c>
       <c r="BV16" t="n">
-        <v>3.199999999999964</v>
+        <v>3.099999999999934</v>
       </c>
       <c r="BW16" t="n">
         <v>164.3</v>
@@ -9234,7 +9234,7 @@
         <v>-16.7</v>
       </c>
       <c r="CB16" t="n">
-        <v>37.5</v>
+        <v>13.6999999999999</v>
       </c>
       <c r="CC16" t="n">
         <v>984.9</v>
@@ -9243,7 +9243,7 @@
         <v>11</v>
       </c>
       <c r="CE16" t="n">
-        <v>5.400000000000009</v>
+        <v>4.5</v>
       </c>
       <c r="CF16" t="n">
         <v>115</v>
@@ -9270,7 +9270,7 @@
         <v>4</v>
       </c>
       <c r="CN16" t="n">
-        <v>3.399999999999977</v>
+        <v>2.499999999999978</v>
       </c>
       <c r="CO16" t="n">
         <v>179.5</v>
@@ -9279,7 +9279,7 @@
         <v>6.3</v>
       </c>
       <c r="CQ16" t="n">
-        <v>8.199999999999989</v>
+        <v>7.5</v>
       </c>
       <c r="CR16" t="n">
         <v>226.9</v>
@@ -9297,7 +9297,7 @@
         <v>12.8</v>
       </c>
       <c r="CW16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CX16" t="n">
         <v>521.4</v>
@@ -9333,7 +9333,7 @@
         <v>5.3</v>
       </c>
       <c r="DI16" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="DJ16" t="n">
         <v>5.6</v>
@@ -9342,7 +9342,7 @@
         <v>14.3</v>
       </c>
       <c r="DL16" t="n">
-        <v>8.699999999999989</v>
+        <v>7.199999999999989</v>
       </c>
       <c r="DM16" t="n">
         <v>311.7</v>
@@ -9360,7 +9360,7 @@
         <v>7.4</v>
       </c>
       <c r="DR16" t="n">
-        <v>13</v>
+        <v>7.699999999999989</v>
       </c>
       <c r="DS16" t="n">
         <v>662.7</v>
@@ -9369,7 +9369,7 @@
         <v>13.6</v>
       </c>
       <c r="DU16" t="n">
-        <v>2.100000000000009</v>
+        <v>1.800000000000019</v>
       </c>
       <c r="DV16" t="n">
         <v>65.5</v>
@@ -9396,7 +9396,7 @@
         <v>6.5</v>
       </c>
       <c r="ED16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="EE16" t="n">
         <v>29</v>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95.29999999999995</v>
+        <v>84.99999999999997</v>
       </c>
       <c r="C17" t="n">
         <v>631.2</v>
@@ -9556,7 +9556,7 @@
         <v>12.5</v>
       </c>
       <c r="E17" t="n">
-        <v>28.5</v>
+        <v>27.40000000000002</v>
       </c>
       <c r="F17" t="n">
         <v>179.6</v>
@@ -9565,7 +9565,7 @@
         <v>10.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.299999999999997</v>
       </c>
       <c r="I17" t="n">
         <v>24</v>
@@ -9574,7 +9574,7 @@
         <v>1.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="L17" t="n">
         <v>0.7</v>
@@ -9583,7 +9583,7 @@
         <v>-30</v>
       </c>
       <c r="N17" t="n">
-        <v>79.60000000000002</v>
+        <v>74.49999999999994</v>
       </c>
       <c r="O17" t="n">
         <v>560.5</v>
@@ -9592,7 +9592,7 @@
         <v>2.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2248.1</v>
+        <v>2052.099999999998</v>
       </c>
       <c r="R17" t="n">
         <v>14413</v>
@@ -9601,7 +9601,7 @@
         <v>5.7</v>
       </c>
       <c r="T17" t="n">
-        <v>173.3</v>
+        <v>167.2</v>
       </c>
       <c r="U17" t="n">
         <v>1072.2</v>
@@ -9610,7 +9610,7 @@
         <v>0.5</v>
       </c>
       <c r="W17" t="n">
-        <v>7.899999999999999</v>
+        <v>6.999999999999996</v>
       </c>
       <c r="X17" t="n">
         <v>41.7</v>
@@ -9619,7 +9619,7 @@
         <v>1.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>349.5999999999999</v>
+        <v>299.2999999999997</v>
       </c>
       <c r="AA17" t="n">
         <v>2532</v>
@@ -9628,7 +9628,7 @@
         <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>13.8</v>
+        <v>12.99999999999999</v>
       </c>
       <c r="AD17" t="n">
         <v>85</v>
@@ -9637,7 +9637,7 @@
         <v>3.3</v>
       </c>
       <c r="AF17" t="n">
-        <v>23.09999999999999</v>
+        <v>20.59999999999999</v>
       </c>
       <c r="AG17" t="n">
         <v>139.4</v>
@@ -9646,7 +9646,7 @@
         <v>4.9</v>
       </c>
       <c r="AI17" t="n">
-        <v>2353.099999999999</v>
+        <v>2144.000000000001</v>
       </c>
       <c r="AJ17" t="n">
         <v>15053.5</v>
@@ -9673,7 +9673,7 @@
         <v>7.1</v>
       </c>
       <c r="AR17" t="n">
-        <v>21.79999999999998</v>
+        <v>18.79999999999998</v>
       </c>
       <c r="AS17" t="n">
         <v>165.4</v>
@@ -9682,7 +9682,7 @@
         <v>5.8</v>
       </c>
       <c r="AU17" t="n">
-        <v>32.19999999999999</v>
+        <v>30.30000000000002</v>
       </c>
       <c r="AV17" t="n">
         <v>187.8</v>
@@ -9691,7 +9691,7 @@
         <v>1.3</v>
       </c>
       <c r="AX17" t="n">
-        <v>3.299999999999997</v>
+        <v>1.899999999999997</v>
       </c>
       <c r="AY17" t="n">
         <v>20</v>
@@ -9709,7 +9709,7 @@
         <v>-3.9</v>
       </c>
       <c r="BD17" t="n">
-        <v>58.5</v>
+        <v>54.50000000000003</v>
       </c>
       <c r="BE17" t="n">
         <v>357.8</v>
@@ -9718,7 +9718,7 @@
         <v>2.3</v>
       </c>
       <c r="BG17" t="n">
-        <v>11.3</v>
+        <v>10.1</v>
       </c>
       <c r="BH17" t="n">
         <v>70.5</v>
@@ -9745,7 +9745,7 @@
         <v>1.2</v>
       </c>
       <c r="BP17" t="n">
-        <v>46.09999999999997</v>
+        <v>39.39999999999998</v>
       </c>
       <c r="BQ17" t="n">
         <v>288.2</v>
@@ -9754,7 +9754,7 @@
         <v>4.9</v>
       </c>
       <c r="BS17" t="n">
-        <v>16.8</v>
+        <v>15.39999999999998</v>
       </c>
       <c r="BT17" t="n">
         <v>100.3</v>
@@ -9763,7 +9763,7 @@
         <v>3.4</v>
       </c>
       <c r="BV17" t="n">
-        <v>33.30000000000001</v>
+        <v>30.10000000000005</v>
       </c>
       <c r="BW17" t="n">
         <v>198.3</v>
@@ -9772,7 +9772,7 @@
         <v>0.6</v>
       </c>
       <c r="BY17" t="n">
-        <v>5.299999999999997</v>
+        <v>4.699999999999996</v>
       </c>
       <c r="BZ17" t="n">
         <v>27.5</v>
@@ -9781,7 +9781,7 @@
         <v>-17.2</v>
       </c>
       <c r="CB17" t="n">
-        <v>188.1999999999998</v>
+        <v>150.6999999999998</v>
       </c>
       <c r="CC17" t="n">
         <v>1237.8</v>
@@ -9790,7 +9790,7 @@
         <v>10.9</v>
       </c>
       <c r="CE17" t="n">
-        <v>24.40000000000001</v>
+        <v>19</v>
       </c>
       <c r="CF17" t="n">
         <v>146.4</v>
@@ -9799,7 +9799,7 @@
         <v>2.4</v>
       </c>
       <c r="CH17" t="n">
-        <v>31.90000000000001</v>
+        <v>28.49999999999998</v>
       </c>
       <c r="CI17" t="n">
         <v>200</v>
@@ -9808,7 +9808,7 @@
         <v>-4</v>
       </c>
       <c r="CK17" t="n">
-        <v>2.799999999999999</v>
+        <v>2.499999999999998</v>
       </c>
       <c r="CL17" t="n">
         <v>15.6</v>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>36.09999999999999</v>
+        <v>32.70000000000001</v>
       </c>
       <c r="CO17" t="n">
         <v>218.3</v>
@@ -9826,7 +9826,7 @@
         <v>5.2</v>
       </c>
       <c r="CQ17" t="n">
-        <v>43.19999999999999</v>
+        <v>35</v>
       </c>
       <c r="CR17" t="n">
         <v>276.5</v>
@@ -9835,7 +9835,7 @@
         <v>0.8</v>
       </c>
       <c r="CT17" t="n">
-        <v>200.3</v>
+        <v>192.1</v>
       </c>
       <c r="CU17" t="n">
         <v>1153.1</v>
@@ -9844,7 +9844,7 @@
         <v>7.5</v>
       </c>
       <c r="CW17" t="n">
-        <v>100.6</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="CX17" t="n">
         <v>635.6</v>
@@ -9853,7 +9853,7 @@
         <v>5</v>
       </c>
       <c r="CZ17" t="n">
-        <v>29.40000000000001</v>
+        <v>28.29999999999999</v>
       </c>
       <c r="DA17" t="n">
         <v>199.9</v>
@@ -9862,7 +9862,7 @@
         <v>2.8</v>
       </c>
       <c r="DC17" t="n">
-        <v>103</v>
+        <v>75.70000000000003</v>
       </c>
       <c r="DD17" t="n">
         <v>682.9</v>
@@ -9871,7 +9871,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="DF17" t="n">
-        <v>71.5</v>
+        <v>61.5</v>
       </c>
       <c r="DG17" t="n">
         <v>442.1</v>
@@ -9889,7 +9889,7 @@
         <v>13.6</v>
       </c>
       <c r="DL17" t="n">
-        <v>62.40000000000003</v>
+        <v>53.70000000000004</v>
       </c>
       <c r="DM17" t="n">
         <v>379.4</v>
@@ -9898,7 +9898,7 @@
         <v>4.5</v>
       </c>
       <c r="DO17" t="n">
-        <v>19.20000000000002</v>
+        <v>16.40000000000001</v>
       </c>
       <c r="DP17" t="n">
         <v>122.2</v>
@@ -9907,7 +9907,7 @@
         <v>9</v>
       </c>
       <c r="DR17" t="n">
-        <v>128.9</v>
+        <v>115.9</v>
       </c>
       <c r="DS17" t="n">
         <v>821.9</v>
@@ -9916,7 +9916,7 @@
         <v>13.1</v>
       </c>
       <c r="DU17" t="n">
-        <v>13.09999999999999</v>
+        <v>10.99999999999998</v>
       </c>
       <c r="DV17" t="n">
         <v>79.5</v>
@@ -9925,7 +9925,7 @@
         <v>6</v>
       </c>
       <c r="DX17" t="n">
-        <v>121.6</v>
+        <v>121.4</v>
       </c>
       <c r="DY17" t="n">
         <v>790.5</v>
@@ -10202,7 +10202,7 @@
         <v>5.6</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.3000000000000012</v>
+        <v>0.1000000000000024</v>
       </c>
       <c r="AM18" t="n">
         <v>25.1</v>
@@ -10211,7 +10211,7 @@
         <v>7.7</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP18" t="n">
         <v>3.5</v>
@@ -10283,7 +10283,7 @@
         <v>-8.4</v>
       </c>
       <c r="BM18" t="n">
-        <v>2.100000000000009</v>
+        <v>1.500000000000008</v>
       </c>
       <c r="BN18" t="n">
         <v>80.3</v>
@@ -10427,7 +10427,7 @@
         <v>5.1</v>
       </c>
       <c r="DI18" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="DJ18" t="n">
         <v>7.9</v>
@@ -10481,7 +10481,7 @@
         <v>0.6</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.2999999999999545</v>
+        <v>0.1999999999999033</v>
       </c>
       <c r="EB18" t="n">
         <v>390.8</v>
@@ -10668,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L19" t="n">
         <v>0.8</v>
@@ -10677,7 +10677,7 @@
         <v>-11.1</v>
       </c>
       <c r="N19" t="n">
-        <v>12.80000000000007</v>
+        <v>1.700000000000159</v>
       </c>
       <c r="O19" t="n">
         <v>740.5</v>
@@ -10722,7 +10722,7 @@
         <v>11.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>15.30000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="AD19" t="n">
         <v>116.5</v>
@@ -10767,7 +10767,7 @@
         <v>22.7</v>
       </c>
       <c r="AR19" t="n">
-        <v>28.69999999999999</v>
+        <v>20.89999999999995</v>
       </c>
       <c r="AS19" t="n">
         <v>224.3</v>
@@ -10776,7 +10776,7 @@
         <v>7.9</v>
       </c>
       <c r="AU19" t="n">
-        <v>32.5</v>
+        <v>30.99999999999997</v>
       </c>
       <c r="AV19" t="n">
         <v>256.8</v>
@@ -10803,7 +10803,7 @@
         <v>-6.3</v>
       </c>
       <c r="BD19" t="n">
-        <v>54.69999999999999</v>
+        <v>51.69999999999999</v>
       </c>
       <c r="BE19" t="n">
         <v>481.8</v>
@@ -10821,7 +10821,7 @@
         <v>5.2</v>
       </c>
       <c r="BJ19" t="n">
-        <v>193.0999999999999</v>
+        <v>160.0999999999999</v>
       </c>
       <c r="BK19" t="n">
         <v>1403.1</v>
@@ -10830,7 +10830,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="BM19" t="n">
-        <v>12.09999999999999</v>
+        <v>9.999999999999982</v>
       </c>
       <c r="BN19" t="n">
         <v>91.90000000000001</v>
@@ -10839,7 +10839,7 @@
         <v>-0.1</v>
       </c>
       <c r="BP19" t="n">
-        <v>48.69999999999999</v>
+        <v>43.69999999999994</v>
       </c>
       <c r="BQ19" t="n">
         <v>388.5</v>
@@ -10875,7 +10875,7 @@
         <v>-17</v>
       </c>
       <c r="CB19" t="n">
-        <v>79.7000000000001</v>
+        <v>79.6999999999999</v>
       </c>
       <c r="CC19" t="n">
         <v>1652.2</v>
@@ -10893,7 +10893,7 @@
         <v>3.1</v>
       </c>
       <c r="CH19" t="n">
-        <v>4.50000000000005</v>
+        <v>2.500000000000082</v>
       </c>
       <c r="CI19" t="n">
         <v>266.2</v>
@@ -10902,7 +10902,7 @@
         <v>-2.9</v>
       </c>
       <c r="CK19" t="n">
-        <v>2.399999999999999</v>
+        <v>2.299999999999996</v>
       </c>
       <c r="CL19" t="n">
         <v>21.3</v>
@@ -10920,7 +10920,7 @@
         <v>4.6</v>
       </c>
       <c r="CQ19" t="n">
-        <v>45.59999999999997</v>
+        <v>40.39999999999993</v>
       </c>
       <c r="CR19" t="n">
         <v>368.8</v>
@@ -10929,7 +10929,7 @@
         <v>0.8</v>
       </c>
       <c r="CT19" t="n">
-        <v>183.0999999999999</v>
+        <v>146.1999999999999</v>
       </c>
       <c r="CU19" t="n">
         <v>1566.8</v>
@@ -10956,7 +10956,7 @@
         <v>4.5</v>
       </c>
       <c r="DC19" t="n">
-        <v>102.1</v>
+        <v>93</v>
       </c>
       <c r="DD19" t="n">
         <v>905.5</v>
@@ -10965,7 +10965,7 @@
         <v>7</v>
       </c>
       <c r="DF19" t="n">
-        <v>74.60000000000002</v>
+        <v>70.5</v>
       </c>
       <c r="DG19" t="n">
         <v>594.9</v>
@@ -10992,7 +10992,7 @@
         <v>5.5</v>
       </c>
       <c r="DO19" t="n">
-        <v>1.100000000000023</v>
+        <v>0.6000000000000549</v>
       </c>
       <c r="DP19" t="n">
         <v>163.6</v>
@@ -11001,7 +11001,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="DR19" t="n">
-        <v>9.600000000000108</v>
+        <v>6.800000000000125</v>
       </c>
       <c r="DS19" t="n">
         <v>1126.4</v>
@@ -11010,7 +11010,7 @@
         <v>14.1</v>
       </c>
       <c r="DU19" t="n">
-        <v>12.8</v>
+        <v>12.69999999999999</v>
       </c>
       <c r="DV19" t="n">
         <v>106</v>
@@ -11019,7 +11019,7 @@
         <v>4.6</v>
       </c>
       <c r="DX19" t="n">
-        <v>149.3000000000002</v>
+        <v>112.8000000000003</v>
       </c>
       <c r="DY19" t="n">
         <v>1039.3</v>
@@ -11028,7 +11028,7 @@
         <v>-2.6</v>
       </c>
       <c r="EA19" t="n">
-        <v>1.600000000000023</v>
+        <v>1.300000000000068</v>
       </c>
       <c r="EB19" t="n">
         <v>446.2</v>
@@ -11037,7 +11037,7 @@
         <v>4.9</v>
       </c>
       <c r="ED19" t="n">
-        <v>0.7000000000000028</v>
+        <v>0.5</v>
       </c>
       <c r="EE19" t="n">
         <v>48.2</v>
@@ -11188,7 +11188,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84.60000000000002</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>956</v>
@@ -11197,7 +11197,7 @@
         <v>11.3</v>
       </c>
       <c r="E20" t="n">
-        <v>24.90000000000003</v>
+        <v>20.90000000000006</v>
       </c>
       <c r="F20" t="n">
         <v>273.4</v>
@@ -11206,7 +11206,7 @@
         <v>10.6</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8000000000000038</v>
+        <v>0.5000000000000027</v>
       </c>
       <c r="I20" t="n">
         <v>34.8</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>86</v>
+        <v>73.19999999999993</v>
       </c>
       <c r="O20" t="n">
         <v>841.3</v>
@@ -11233,7 +11233,7 @@
         <v>2.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>2165.5</v>
+        <v>2027.3</v>
       </c>
       <c r="R20" t="n">
         <v>21866.1</v>
@@ -11242,7 +11242,7 @@
         <v>5.1</v>
       </c>
       <c r="T20" t="n">
-        <v>102.8</v>
+        <v>52.19999999999997</v>
       </c>
       <c r="U20" t="n">
         <v>1602.3</v>
@@ -11251,7 +11251,7 @@
         <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>4.800000000000004</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="X20" t="n">
         <v>63.5</v>
@@ -11260,7 +11260,7 @@
         <v>1</v>
       </c>
       <c r="Z20" t="n">
-        <v>253.4000000000001</v>
+        <v>211.2000000000008</v>
       </c>
       <c r="AA20" t="n">
         <v>3787.8</v>
@@ -11287,7 +11287,7 @@
         <v>5.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>2272.299999999999</v>
+        <v>2133.300000000003</v>
       </c>
       <c r="AJ20" t="n">
         <v>22844.2</v>
@@ -11296,7 +11296,7 @@
         <v>5</v>
       </c>
       <c r="AL20" t="n">
-        <v>3.600000000000001</v>
+        <v>3.400000000000002</v>
       </c>
       <c r="AM20" t="n">
         <v>33.7</v>
@@ -11332,7 +11332,7 @@
         <v>3.3</v>
       </c>
       <c r="AX20" t="n">
-        <v>3.5</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="AY20" t="n">
         <v>31.1</v>
@@ -11341,7 +11341,7 @@
         <v>5.4</v>
       </c>
       <c r="BA20" t="n">
-        <v>10.5</v>
+        <v>9.499999999999989</v>
       </c>
       <c r="BB20" t="n">
         <v>136.2</v>
@@ -11359,7 +11359,7 @@
         <v>4.1</v>
       </c>
       <c r="BG20" t="n">
-        <v>11.90000000000001</v>
+        <v>11.70000000000002</v>
       </c>
       <c r="BH20" t="n">
         <v>109.8</v>
@@ -11395,7 +11395,7 @@
         <v>4.8</v>
       </c>
       <c r="BS20" t="n">
-        <v>17.19999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="BT20" t="n">
         <v>153.8</v>
@@ -11404,7 +11404,7 @@
         <v>4</v>
       </c>
       <c r="BV20" t="n">
-        <v>33.90000000000003</v>
+        <v>32.3000000000001</v>
       </c>
       <c r="BW20" t="n">
         <v>303.3</v>
@@ -11422,7 +11422,7 @@
         <v>-15</v>
       </c>
       <c r="CB20" t="n">
-        <v>221</v>
+        <v>141.2999999999999</v>
       </c>
       <c r="CC20" t="n">
         <v>1919.5</v>
@@ -11431,7 +11431,7 @@
         <v>9.1</v>
       </c>
       <c r="CE20" t="n">
-        <v>20.19999999999999</v>
+        <v>20.09999999999997</v>
       </c>
       <c r="CF20" t="n">
         <v>223.6</v>
@@ -11440,7 +11440,7 @@
         <v>4.1</v>
       </c>
       <c r="CH20" t="n">
-        <v>34.5</v>
+        <v>29.99999999999995</v>
       </c>
       <c r="CI20" t="n">
         <v>299.3</v>
@@ -11458,7 +11458,7 @@
         <v>0.8</v>
       </c>
       <c r="CN20" t="n">
-        <v>34.39999999999998</v>
+        <v>29.99999999999998</v>
       </c>
       <c r="CO20" t="n">
         <v>324</v>
@@ -11485,7 +11485,7 @@
         <v>5.8</v>
       </c>
       <c r="CW20" t="n">
-        <v>85</v>
+        <v>74.20000000000007</v>
       </c>
       <c r="CX20" t="n">
         <v>960.3</v>
@@ -11494,7 +11494,7 @@
         <v>5.3</v>
       </c>
       <c r="CZ20" t="n">
-        <v>33.60000000000002</v>
+        <v>31.10000000000005</v>
       </c>
       <c r="DA20" t="n">
         <v>303.8</v>
@@ -11530,7 +11530,7 @@
         <v>17.9</v>
       </c>
       <c r="DL20" t="n">
-        <v>53.60000000000002</v>
+        <v>31.80000000000007</v>
       </c>
       <c r="DM20" t="n">
         <v>561.1</v>
@@ -11539,7 +11539,7 @@
         <v>5.1</v>
       </c>
       <c r="DO20" t="n">
-        <v>18</v>
+        <v>16.89999999999998</v>
       </c>
       <c r="DP20" t="n">
         <v>187.7</v>
@@ -11548,7 +11548,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="DR20" t="n">
-        <v>140.1999999999998</v>
+        <v>130.5999999999997</v>
       </c>
       <c r="DS20" t="n">
         <v>1287.8</v>
@@ -11575,7 +11575,7 @@
         <v>-2.3</v>
       </c>
       <c r="EA20" t="n">
-        <v>56.80000000000007</v>
+        <v>55.20000000000005</v>
       </c>
       <c r="EB20" t="n">
         <v>506.1</v>
@@ -11584,7 +11584,7 @@
         <v>4.6</v>
       </c>
       <c r="ED20" t="n">
-        <v>5.5</v>
+        <v>4.799999999999997</v>
       </c>
       <c r="EE20" t="n">
         <v>54.2</v>
@@ -11762,7 +11762,7 @@
         <v>3.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -11897,7 +11897,7 @@
         <v>-3.1</v>
       </c>
       <c r="BD21" t="n">
-        <v>8.099999999999902</v>
+        <v>4.599999999999838</v>
       </c>
       <c r="BE21" t="n">
         <v>605.7</v>
@@ -11960,7 +11960,7 @@
         <v>1.5</v>
       </c>
       <c r="BY21" t="n">
-        <v>1.900000000000006</v>
+        <v>1.500000000000014</v>
       </c>
       <c r="BZ21" t="n">
         <v>44.2</v>
@@ -11996,7 +11996,7 @@
         <v>-4.4</v>
       </c>
       <c r="CK21" t="n">
-        <v>2.699999999999999</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="CL21" t="n">
         <v>27.6</v>
@@ -12104,7 +12104,7 @@
         <v>13.6</v>
       </c>
       <c r="DU21" t="n">
-        <v>2.000000000000028</v>
+        <v>0.7000000000000379</v>
       </c>
       <c r="DV21" t="n">
         <v>134.9</v>
@@ -12113,7 +12113,7 @@
         <v>5.2</v>
       </c>
       <c r="DX21" t="n">
-        <v>145.5</v>
+        <v>87.80000000000021</v>
       </c>
       <c r="DY21" t="n">
         <v>1385.7</v>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.69999999999999</v>
+        <v>59.19999999999999</v>
       </c>
       <c r="C22" t="n">
         <v>1147.6</v>
@@ -12291,7 +12291,7 @@
         <v>11</v>
       </c>
       <c r="E22" t="n">
-        <v>24.39999999999998</v>
+        <v>20.30000000000001</v>
       </c>
       <c r="F22" t="n">
         <v>330</v>
@@ -12300,7 +12300,7 @@
         <v>9.6</v>
       </c>
       <c r="H22" t="n">
-        <v>1.600000000000009</v>
+        <v>1.300000000000018</v>
       </c>
       <c r="I22" t="n">
         <v>42.7</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>67.80000000000007</v>
+        <v>6.700000000000045</v>
       </c>
       <c r="O22" t="n">
         <v>980.8</v>
@@ -12327,7 +12327,7 @@
         <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>930.3999999999942</v>
+        <v>709.5999999999913</v>
       </c>
       <c r="R22" t="n">
         <v>26513.8</v>
@@ -12345,7 +12345,7 @@
         <v>1.8</v>
       </c>
       <c r="W22" t="n">
-        <v>4.099999999999994</v>
+        <v>3.199999999999996</v>
       </c>
       <c r="X22" t="n">
         <v>77.2</v>
@@ -12363,7 +12363,7 @@
         <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.400000000000002</v>
+        <v>4.299999999999972</v>
       </c>
       <c r="AD22" t="n">
         <v>167.8</v>
@@ -12372,7 +12372,7 @@
         <v>3.9</v>
       </c>
       <c r="AF22" t="n">
-        <v>17.59999999999997</v>
+        <v>14.29999999999993</v>
       </c>
       <c r="AG22" t="n">
         <v>260.8</v>
@@ -12381,7 +12381,7 @@
         <v>4.4</v>
       </c>
       <c r="AI22" t="n">
-        <v>978.5</v>
+        <v>743.0999999999976</v>
       </c>
       <c r="AJ22" t="n">
         <v>27719.4</v>
@@ -12399,7 +12399,7 @@
         <v>8.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AP22" t="n">
         <v>4.2</v>
@@ -12408,7 +12408,7 @@
         <v>20</v>
       </c>
       <c r="AR22" t="n">
-        <v>24.60000000000002</v>
+        <v>7.900000000000031</v>
       </c>
       <c r="AS22" t="n">
         <v>294.8</v>
@@ -12417,7 +12417,7 @@
         <v>6.3</v>
       </c>
       <c r="AU22" t="n">
-        <v>15.09999999999997</v>
+        <v>12.39999999999993</v>
       </c>
       <c r="AV22" t="n">
         <v>355.6</v>
@@ -12426,7 +12426,7 @@
         <v>4.2</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.599999999999994</v>
+        <v>4.399999999999991</v>
       </c>
       <c r="AY22" t="n">
         <v>36.7</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>9.000000000000032</v>
+        <v>0.7000000000000526</v>
       </c>
       <c r="BB22" t="n">
         <v>169.1</v>
@@ -12444,7 +12444,7 @@
         <v>-3.4</v>
       </c>
       <c r="BD22" t="n">
-        <v>22.30000000000007</v>
+        <v>14.20000000000017</v>
       </c>
       <c r="BE22" t="n">
         <v>669.7</v>
@@ -12453,7 +12453,7 @@
         <v>3.2</v>
       </c>
       <c r="BG22" t="n">
-        <v>9.599999999999978</v>
+        <v>7.899999999999977</v>
       </c>
       <c r="BH22" t="n">
         <v>137.1</v>
@@ -12462,7 +12462,7 @@
         <v>6</v>
       </c>
       <c r="BJ22" t="n">
-        <v>59.10000000000022</v>
+        <v>57.40000000000023</v>
       </c>
       <c r="BK22" t="n">
         <v>2027.1</v>
@@ -12471,7 +12471,7 @@
         <v>-4.9</v>
       </c>
       <c r="BM22" t="n">
-        <v>14.79999999999998</v>
+        <v>10.39999999999998</v>
       </c>
       <c r="BN22" t="n">
         <v>128.2</v>
@@ -12480,7 +12480,7 @@
         <v>-3.1</v>
       </c>
       <c r="BP22" t="n">
-        <v>8.500000000000121</v>
+        <v>1.000000000000185</v>
       </c>
       <c r="BQ22" t="n">
         <v>537</v>
@@ -12489,7 +12489,7 @@
         <v>3.1</v>
       </c>
       <c r="BS22" t="n">
-        <v>13.40000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="BT22" t="n">
         <v>190.7</v>
@@ -12498,7 +12498,7 @@
         <v>3.9</v>
       </c>
       <c r="BV22" t="n">
-        <v>24.99999999999994</v>
+        <v>20.09999999999996</v>
       </c>
       <c r="BW22" t="n">
         <v>377.9</v>
@@ -12507,7 +12507,7 @@
         <v>1.8</v>
       </c>
       <c r="BY22" t="n">
-        <v>2</v>
+        <v>0.09999999999999409</v>
       </c>
       <c r="BZ22" t="n">
         <v>50.1</v>
@@ -12516,7 +12516,7 @@
         <v>-13.9</v>
       </c>
       <c r="CB22" t="n">
-        <v>55.09999999999974</v>
+        <v>42.89999999999975</v>
       </c>
       <c r="CC22" t="n">
         <v>2291.7</v>
@@ -12525,7 +12525,7 @@
         <v>3.5</v>
       </c>
       <c r="CE22" t="n">
-        <v>17.5</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="CF22" t="n">
         <v>268.2</v>
@@ -12534,7 +12534,7 @@
         <v>3</v>
       </c>
       <c r="CH22" t="n">
-        <v>6.099999999999973</v>
+        <v>4.599999999999973</v>
       </c>
       <c r="CI22" t="n">
         <v>364.6</v>
@@ -12543,7 +12543,7 @@
         <v>-4.8</v>
       </c>
       <c r="CK22" t="n">
-        <v>4.000000000000004</v>
+        <v>1.300000000000006</v>
       </c>
       <c r="CL22" t="n">
         <v>30.7</v>
@@ -12552,7 +12552,7 @@
         <v>4.1</v>
       </c>
       <c r="CN22" t="n">
-        <v>16.69999999999995</v>
+        <v>11.6999999999999</v>
       </c>
       <c r="CO22" t="n">
         <v>392.2</v>
@@ -12561,7 +12561,7 @@
         <v>1.7</v>
       </c>
       <c r="CQ22" t="n">
-        <v>24.10000000000008</v>
+        <v>15.2000000000001</v>
       </c>
       <c r="CR22" t="n">
         <v>508.1</v>
@@ -12570,7 +12570,7 @@
         <v>0.4</v>
       </c>
       <c r="CT22" t="n">
-        <v>130.0999999999999</v>
+        <v>123.1000000000001</v>
       </c>
       <c r="CU22" t="n">
         <v>2219</v>
@@ -12579,7 +12579,7 @@
         <v>4.3</v>
       </c>
       <c r="CW22" t="n">
-        <v>54.99999999999982</v>
+        <v>28.89999999999973</v>
       </c>
       <c r="CX22" t="n">
         <v>1168.7</v>
@@ -12588,7 +12588,7 @@
         <v>5.4</v>
       </c>
       <c r="CZ22" t="n">
-        <v>9.199999999999989</v>
+        <v>8</v>
       </c>
       <c r="DA22" t="n">
         <v>378.8</v>
@@ -12606,7 +12606,7 @@
         <v>8.1</v>
       </c>
       <c r="DF22" t="n">
-        <v>22.80000000000004</v>
+        <v>12.90000000000006</v>
       </c>
       <c r="DG22" t="n">
         <v>827.7</v>
@@ -12624,7 +12624,7 @@
         <v>5</v>
       </c>
       <c r="DL22" t="n">
-        <v>30.39999999999997</v>
+        <v>21.29999999999994</v>
       </c>
       <c r="DM22" t="n">
         <v>684.7</v>
@@ -12633,7 +12633,7 @@
         <v>5.3</v>
       </c>
       <c r="DO22" t="n">
-        <v>25.89999999999998</v>
+        <v>23.29999999999999</v>
       </c>
       <c r="DP22" t="n">
         <v>231.3</v>
@@ -12642,7 +12642,7 @@
         <v>9.9</v>
       </c>
       <c r="DR22" t="n">
-        <v>50.39999999999989</v>
+        <v>37.99999999999957</v>
       </c>
       <c r="DS22" t="n">
         <v>1618.3</v>
@@ -12651,7 +12651,7 @@
         <v>13.9</v>
       </c>
       <c r="DU22" t="n">
-        <v>3.999999999999972</v>
+        <v>1.999999999999944</v>
       </c>
       <c r="DV22" t="n">
         <v>151.7</v>
@@ -12678,7 +12678,7 @@
         <v>4</v>
       </c>
       <c r="ED22" t="n">
-        <v>1.000000000000007</v>
+        <v>0.6000000000000085</v>
       </c>
       <c r="EE22" t="n">
         <v>66.40000000000001</v>
@@ -12838,7 +12838,7 @@
         <v>10.4</v>
       </c>
       <c r="E23" t="n">
-        <v>51.2</v>
+        <v>26.80000000000002</v>
       </c>
       <c r="F23" t="n">
         <v>387.5</v>
@@ -12883,7 +12883,7 @@
         <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>87.39999999999989</v>
+        <v>62.79999999999978</v>
       </c>
       <c r="U23" t="n">
         <v>2066.4</v>
@@ -12901,7 +12901,7 @@
         <v>4.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>282.6</v>
+        <v>221.2999999999998</v>
       </c>
       <c r="AA23" t="n">
         <v>4919.7</v>
@@ -12910,7 +12910,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.29999999999999</v>
+        <v>1.899999999999988</v>
       </c>
       <c r="AD23" t="n">
         <v>191.5</v>
@@ -12919,7 +12919,7 @@
         <v>5</v>
       </c>
       <c r="AF23" t="n">
-        <v>40.2</v>
+        <v>22.60000000000003</v>
       </c>
       <c r="AG23" t="n">
         <v>299.4</v>
@@ -12973,7 +12973,7 @@
         <v>3.7</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.6</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="AY23" t="n">
         <v>42.2</v>
@@ -12982,7 +12982,7 @@
         <v>-6.2</v>
       </c>
       <c r="BA23" t="n">
-        <v>25.4</v>
+        <v>16.39999999999997</v>
       </c>
       <c r="BB23" t="n">
         <v>192.9</v>
@@ -13009,7 +13009,7 @@
         <v>5.1</v>
       </c>
       <c r="BJ23" t="n">
-        <v>64.79999999999981</v>
+        <v>5.699999999999591</v>
       </c>
       <c r="BK23" t="n">
         <v>2289.5</v>
@@ -13018,7 +13018,7 @@
         <v>-4</v>
       </c>
       <c r="BM23" t="n">
-        <v>21</v>
+        <v>6.200000000000021</v>
       </c>
       <c r="BN23" t="n">
         <v>157.6</v>
@@ -13027,7 +13027,7 @@
         <v>-3.5</v>
       </c>
       <c r="BP23" t="n">
-        <v>20.79999999999993</v>
+        <v>12.29999999999981</v>
       </c>
       <c r="BQ23" t="n">
         <v>592.4</v>
@@ -13072,7 +13072,7 @@
         <v>2.8</v>
       </c>
       <c r="CE23" t="n">
-        <v>40</v>
+        <v>22.5</v>
       </c>
       <c r="CF23" t="n">
         <v>296.5</v>
@@ -13081,7 +13081,7 @@
         <v>-2.3</v>
       </c>
       <c r="CH23" t="n">
-        <v>20.00000000000003</v>
+        <v>13.90000000000006</v>
       </c>
       <c r="CI23" t="n">
         <v>408</v>
@@ -13090,7 +13090,7 @@
         <v>-4</v>
       </c>
       <c r="CK23" t="n">
-        <v>5.6</v>
+        <v>1.599999999999995</v>
       </c>
       <c r="CL23" t="n">
         <v>37.5</v>
@@ -13117,7 +13117,7 @@
         <v>-1.8</v>
       </c>
       <c r="CT23" t="n">
-        <v>343.2</v>
+        <v>213.1000000000001</v>
       </c>
       <c r="CU23" t="n">
         <v>2605.1</v>
@@ -13135,7 +13135,7 @@
         <v>4.8</v>
       </c>
       <c r="CZ23" t="n">
-        <v>14.1</v>
+        <v>4.900000000000011</v>
       </c>
       <c r="DA23" t="n">
         <v>418.5</v>
@@ -13144,7 +13144,7 @@
         <v>3.9</v>
       </c>
       <c r="DC23" t="n">
-        <v>90.89999999999999</v>
+        <v>44.00000000000008</v>
       </c>
       <c r="DD23" t="n">
         <v>1289.8</v>
@@ -13162,7 +13162,7 @@
         <v>1.7</v>
       </c>
       <c r="DI23" t="n">
-        <v>0.599999999999999</v>
+        <v>0.599999999999997</v>
       </c>
       <c r="DJ23" t="n">
         <v>12.1</v>
@@ -13180,7 +13180,7 @@
         <v>5</v>
       </c>
       <c r="DO23" t="n">
-        <v>32.1</v>
+        <v>6.200000000000021</v>
       </c>
       <c r="DP23" t="n">
         <v>268.5</v>
@@ -13207,7 +13207,7 @@
         <v>2.7</v>
       </c>
       <c r="DX23" t="n">
-        <v>69.70000000000013</v>
+        <v>28.30000000000024</v>
       </c>
       <c r="DY23" t="n">
         <v>1710.5</v>
@@ -13216,7 +13216,7 @@
         <v>-2.6</v>
       </c>
       <c r="EA23" t="n">
-        <v>35.20000000000005</v>
+        <v>29.30000000000008</v>
       </c>
       <c r="EB23" t="n">
         <v>691.7</v>
@@ -13225,7 +13225,7 @@
         <v>5.2</v>
       </c>
       <c r="ED23" t="n">
-        <v>2.999999999999995</v>
+        <v>1.999999999999988</v>
       </c>
       <c r="EE23" t="n">
         <v>71.59999999999999</v>
@@ -13376,7 +13376,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>122.3</v>
+        <v>111.2</v>
       </c>
       <c r="C24" t="n">
         <v>139</v>
@@ -13394,7 +13394,7 @@
         <v>-15</v>
       </c>
       <c r="H24" t="n">
-        <v>4.100000000000001</v>
+        <v>3.000000000000004</v>
       </c>
       <c r="I24" t="n">
         <v>5.8</v>
@@ -13412,7 +13412,7 @@
         <v>-100</v>
       </c>
       <c r="N24" t="n">
-        <v>92.79999999999998</v>
+        <v>52.80000000000008</v>
       </c>
       <c r="O24" t="n">
         <v>139.7</v>
@@ -13421,7 +13421,7 @@
         <v>-17.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2539.799999999999</v>
+        <v>1739.899999999996</v>
       </c>
       <c r="R24" t="n">
         <v>3446.4</v>
@@ -13430,7 +13430,7 @@
         <v>-16.3</v>
       </c>
       <c r="T24" t="n">
-        <v>184.8</v>
+        <v>97.40000000000012</v>
       </c>
       <c r="U24" t="n">
         <v>241</v>
@@ -13439,7 +13439,7 @@
         <v>-15.9</v>
       </c>
       <c r="W24" t="n">
-        <v>7.299999999999999</v>
+        <v>4.699999999999996</v>
       </c>
       <c r="X24" t="n">
         <v>10.5</v>
@@ -13448,7 +13448,7 @@
         <v>-15.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>424.4</v>
+        <v>141.8</v>
       </c>
       <c r="AA24" t="n">
         <v>635.2</v>
@@ -13457,7 +13457,7 @@
         <v>-11.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>15.8</v>
+        <v>9.500000000000011</v>
       </c>
       <c r="AD24" t="n">
         <v>20.4</v>
@@ -13475,7 +13475,7 @@
         <v>-25.4</v>
       </c>
       <c r="AI24" t="n">
-        <v>2659</v>
+        <v>1832.800000000002</v>
       </c>
       <c r="AJ24" t="n">
         <v>3621.1</v>
@@ -13484,7 +13484,7 @@
         <v>-16</v>
       </c>
       <c r="AL24" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AM24" t="n">
         <v>4.7</v>
@@ -13502,7 +13502,7 @@
         <v>-16.7</v>
       </c>
       <c r="AR24" t="n">
-        <v>28.1</v>
+        <v>23.00000000000001</v>
       </c>
       <c r="AS24" t="n">
         <v>39.2</v>
@@ -13511,7 +13511,7 @@
         <v>-15.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>34.49999999999999</v>
+        <v>25.59999999999998</v>
       </c>
       <c r="AV24" t="n">
         <v>47.9</v>
@@ -13538,7 +13538,7 @@
         <v>-25.6</v>
       </c>
       <c r="BD24" t="n">
-        <v>63.09999999999999</v>
+        <v>47.80000000000001</v>
       </c>
       <c r="BE24" t="n">
         <v>83.90000000000001</v>
@@ -13547,7 +13547,7 @@
         <v>-19.2</v>
       </c>
       <c r="BG24" t="n">
-        <v>11.3</v>
+        <v>10.89999999999999</v>
       </c>
       <c r="BH24" t="n">
         <v>22.7</v>
@@ -13556,7 +13556,7 @@
         <v>-3.8</v>
       </c>
       <c r="BJ24" t="n">
-        <v>180.3</v>
+        <v>115.5000000000002</v>
       </c>
       <c r="BK24" t="n">
         <v>227.8</v>
@@ -13574,7 +13574,7 @@
         <v>-13.8</v>
       </c>
       <c r="BP24" t="n">
-        <v>54.59999999999999</v>
+        <v>33.80000000000005</v>
       </c>
       <c r="BQ24" t="n">
         <v>70.09999999999999</v>
@@ -13583,7 +13583,7 @@
         <v>-15.6</v>
       </c>
       <c r="BS24" t="n">
-        <v>19.3</v>
+        <v>16.50000000000001</v>
       </c>
       <c r="BT24" t="n">
         <v>36.9</v>
@@ -13592,7 +13592,7 @@
         <v>6.3</v>
       </c>
       <c r="BV24" t="n">
-        <v>35.7</v>
+        <v>30.99999999999995</v>
       </c>
       <c r="BW24" t="n">
         <v>68.8</v>
@@ -13601,7 +13601,7 @@
         <v>0.4</v>
       </c>
       <c r="BY24" t="n">
-        <v>5.100000000000001</v>
+        <v>3.600000000000005</v>
       </c>
       <c r="BZ24" t="n">
         <v>9.199999999999999</v>
@@ -13610,7 +13610,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="CB24" t="n">
-        <v>229.1</v>
+        <v>202.1999999999997</v>
       </c>
       <c r="CC24" t="n">
         <v>242.5</v>
@@ -13628,7 +13628,7 @@
         <v>-26.5</v>
       </c>
       <c r="CH24" t="n">
-        <v>39.8</v>
+        <v>19.79999999999997</v>
       </c>
       <c r="CI24" t="n">
         <v>56</v>
@@ -13646,7 +13646,7 @@
         <v>8.9</v>
       </c>
       <c r="CN24" t="n">
-        <v>37.09999999999999</v>
+        <v>31.69999999999996</v>
       </c>
       <c r="CO24" t="n">
         <v>46.2</v>
@@ -13655,7 +13655,7 @@
         <v>-24.9</v>
       </c>
       <c r="CQ24" t="n">
-        <v>49.7</v>
+        <v>46.70000000000007</v>
       </c>
       <c r="CR24" t="n">
         <v>62.9</v>
@@ -13673,7 +13673,7 @@
         <v>-11.4</v>
       </c>
       <c r="CW24" t="n">
-        <v>116.5</v>
+        <v>101.2999999999999</v>
       </c>
       <c r="CX24" t="n">
         <v>141.8</v>
@@ -13682,7 +13682,7 @@
         <v>-21.8</v>
       </c>
       <c r="CZ24" t="n">
-        <v>35.1</v>
+        <v>21</v>
       </c>
       <c r="DA24" t="n">
         <v>50.2</v>
@@ -13691,7 +13691,7 @@
         <v>-13.6</v>
       </c>
       <c r="DC24" t="n">
-        <v>121.6</v>
+        <v>30.7</v>
       </c>
       <c r="DD24" t="n">
         <v>176.3</v>
@@ -13700,7 +13700,7 @@
         <v>-12.8</v>
       </c>
       <c r="DF24" t="n">
-        <v>83.60000000000001</v>
+        <v>61.90000000000001</v>
       </c>
       <c r="DG24" t="n">
         <v>106</v>
@@ -13709,7 +13709,7 @@
         <v>-16.7</v>
       </c>
       <c r="DI24" t="n">
-        <v>1.1</v>
+        <v>0.5000000000000011</v>
       </c>
       <c r="DJ24" t="n">
         <v>1.6</v>
@@ -13718,7 +13718,7 @@
         <v>-11.1</v>
       </c>
       <c r="DL24" t="n">
-        <v>64.39999999999999</v>
+        <v>51.80000000000001</v>
       </c>
       <c r="DM24" t="n">
         <v>83</v>
@@ -13736,7 +13736,7 @@
         <v>-20.9</v>
       </c>
       <c r="DR24" t="n">
-        <v>150.6</v>
+        <v>125.7</v>
       </c>
       <c r="DS24" t="n">
         <v>185</v>
@@ -13745,7 +13745,7 @@
         <v>-18.8</v>
       </c>
       <c r="DU24" t="n">
-        <v>15.3</v>
+        <v>11.99999999999999</v>
       </c>
       <c r="DV24" t="n">
         <v>17.6</v>
@@ -13754,7 +13754,7 @@
         <v>-24.8</v>
       </c>
       <c r="DX24" t="n">
-        <v>141.8</v>
+        <v>72.09999999999988</v>
       </c>
       <c r="DY24" t="n">
         <v>245.4</v>
@@ -13763,7 +13763,7 @@
         <v>-4.4</v>
       </c>
       <c r="EA24" t="n">
-        <v>58.30000000000001</v>
+        <v>23.09999999999996</v>
       </c>
       <c r="EB24" t="n">
         <v>90.90000000000001</v>
@@ -13772,7 +13772,7 @@
         <v>-5.8</v>
       </c>
       <c r="ED24" t="n">
-        <v>6.700000000000001</v>
+        <v>3.700000000000006</v>
       </c>
       <c r="EE24" t="n">
         <v>7.7</v>
@@ -13950,7 +13950,7 @@
         <v>-11</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -14650,7 +14650,7 @@
         <v>-2.4</v>
       </c>
       <c r="BJ26" t="n">
-        <v>180.4</v>
+        <v>173.5</v>
       </c>
       <c r="BK26" t="n">
         <v>566.4</v>
@@ -14659,7 +14659,7 @@
         <v>-17.3</v>
       </c>
       <c r="BM26" t="n">
-        <v>11.3</v>
+        <v>9.4</v>
       </c>
       <c r="BN26" t="n">
         <v>40.8</v>
@@ -14758,7 +14758,7 @@
         <v>-18.6</v>
       </c>
       <c r="CT26" t="n">
-        <v>1.900000000000006</v>
+        <v>0.09999999999999498</v>
       </c>
       <c r="CU26" t="n">
         <v>677.3</v>
@@ -15035,7 +15035,7 @@
         <v>-10</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2000000000000015</v>
+        <v>4.163336342344337e-16</v>
       </c>
       <c r="I27" t="n">
         <v>17.6</v>
@@ -15062,7 +15062,7 @@
         <v>-7.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>202.5000000000023</v>
+        <v>188.8000000000034</v>
       </c>
       <c r="R27" t="n">
         <v>10166.4</v>
@@ -15080,7 +15080,7 @@
         <v>-7.3</v>
       </c>
       <c r="W27" t="n">
-        <v>0.5</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="X27" t="n">
         <v>30</v>
@@ -15116,7 +15116,7 @@
         <v>-16</v>
       </c>
       <c r="AI27" t="n">
-        <v>205.2000000000012</v>
+        <v>180.5000000000014</v>
       </c>
       <c r="AJ27" t="n">
         <v>10652.6</v>
@@ -15125,7 +15125,7 @@
         <v>-10.1</v>
       </c>
       <c r="AL27" t="n">
-        <v>4</v>
+        <v>3.599999999999998</v>
       </c>
       <c r="AM27" t="n">
         <v>15</v>
@@ -15170,7 +15170,7 @@
         <v>-14.2</v>
       </c>
       <c r="BA27" t="n">
-        <v>15.09999999999999</v>
+        <v>14.49999999999999</v>
       </c>
       <c r="BB27" t="n">
         <v>59.9</v>
@@ -15179,7 +15179,7 @@
         <v>-17.3</v>
       </c>
       <c r="BD27" t="n">
-        <v>63.59999999999997</v>
+        <v>57.39999999999998</v>
       </c>
       <c r="BE27" t="n">
         <v>269.9</v>
@@ -15188,7 +15188,7 @@
         <v>-7.5</v>
       </c>
       <c r="BG27" t="n">
-        <v>0.900000000000011</v>
+        <v>0.400000000000011</v>
       </c>
       <c r="BH27" t="n">
         <v>56.2</v>
@@ -15215,7 +15215,7 @@
         <v>-11.1</v>
       </c>
       <c r="BP27" t="n">
-        <v>47.80000000000001</v>
+        <v>39.30000000000001</v>
       </c>
       <c r="BQ27" t="n">
         <v>205.6</v>
@@ -15233,7 +15233,7 @@
         <v>2.9</v>
       </c>
       <c r="BV27" t="n">
-        <v>1.799999999999983</v>
+        <v>0.9999999999999858</v>
       </c>
       <c r="BW27" t="n">
         <v>171.3</v>
@@ -15287,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="CN27" t="n">
-        <v>1.700000000000017</v>
+        <v>0.7000000000000455</v>
       </c>
       <c r="CO27" t="n">
         <v>143.8</v>
@@ -15296,7 +15296,7 @@
         <v>-14.5</v>
       </c>
       <c r="CQ27" t="n">
-        <v>5.500000000000036</v>
+        <v>3.800000000000062</v>
       </c>
       <c r="CR27" t="n">
         <v>173.9</v>
@@ -15305,7 +15305,7 @@
         <v>-18</v>
       </c>
       <c r="CT27" t="n">
-        <v>178.5</v>
+        <v>176.6</v>
       </c>
       <c r="CU27" t="n">
         <v>865</v>
@@ -15314,7 +15314,7 @@
         <v>-9</v>
       </c>
       <c r="CW27" t="n">
-        <v>7.5</v>
+        <v>5.899999999999991</v>
       </c>
       <c r="CX27" t="n">
         <v>449.3</v>
@@ -15323,7 +15323,7 @@
         <v>-12.1</v>
       </c>
       <c r="CZ27" t="n">
-        <v>4.20000000000001</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="DA27" t="n">
         <v>151.8</v>
@@ -15368,7 +15368,7 @@
         <v>-10.1</v>
       </c>
       <c r="DO27" t="n">
-        <v>3.899999999999991</v>
+        <v>0.9999999999999822</v>
       </c>
       <c r="DP27" t="n">
         <v>83.5</v>
@@ -15377,7 +15377,7 @@
         <v>-10.9</v>
       </c>
       <c r="DR27" t="n">
-        <v>14.69999999999999</v>
+        <v>2.69999999999999</v>
       </c>
       <c r="DS27" t="n">
         <v>626.2</v>
@@ -15395,7 +15395,7 @@
         <v>-6.5</v>
       </c>
       <c r="DX27" t="n">
-        <v>144.2</v>
+        <v>133.8000000000002</v>
       </c>
       <c r="DY27" t="n">
         <v>671.1</v>
@@ -15413,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="ED27" t="n">
-        <v>6.000000000000004</v>
+        <v>5.200000000000004</v>
       </c>
       <c r="EE27" t="n">
         <v>22.7</v>
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.6</v>
+        <v>90.89999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>612.5</v>
@@ -15573,7 +15573,7 @@
         <v>-0.8</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>24.40000000000004</v>
       </c>
       <c r="F28" t="n">
         <v>161.5</v>
@@ -15600,7 +15600,7 @@
         <v>-57.1</v>
       </c>
       <c r="N28" t="n">
-        <v>81.70000000000005</v>
+        <v>74.40000000000003</v>
       </c>
       <c r="O28" t="n">
         <v>487.4</v>
@@ -15609,7 +15609,7 @@
         <v>-5.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>2322.1</v>
+        <v>2119.599999999998</v>
       </c>
       <c r="R28" t="n">
         <v>12862.5</v>
@@ -15618,7 +15618,7 @@
         <v>-7.4</v>
       </c>
       <c r="T28" t="n">
-        <v>163</v>
+        <v>150.5</v>
       </c>
       <c r="U28" t="n">
         <v>917.9</v>
@@ -15636,7 +15636,7 @@
         <v>-11.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>370</v>
+        <v>318.9000000000001</v>
       </c>
       <c r="AA28" t="n">
         <v>2064.5</v>
@@ -15645,7 +15645,7 @@
         <v>-14.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.100000000000009</v>
+        <v>0.7000000000000175</v>
       </c>
       <c r="AD28" t="n">
         <v>76.90000000000001</v>
@@ -15654,7 +15654,7 @@
         <v>-10.6</v>
       </c>
       <c r="AF28" t="n">
-        <v>23.20000000000002</v>
+        <v>21.80000000000004</v>
       </c>
       <c r="AG28" t="n">
         <v>117.3</v>
@@ -15663,7 +15663,7 @@
         <v>-15.1</v>
       </c>
       <c r="AI28" t="n">
-        <v>2432</v>
+        <v>2226.799999999999</v>
       </c>
       <c r="AJ28" t="n">
         <v>13470.5</v>
@@ -15681,7 +15681,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.1999999999999998</v>
       </c>
       <c r="AP28" t="n">
         <v>1.4</v>
@@ -15690,7 +15690,7 @@
         <v>-12.5</v>
       </c>
       <c r="AR28" t="n">
-        <v>26.5</v>
+        <v>23.50000000000001</v>
       </c>
       <c r="AS28" t="n">
         <v>143.1</v>
@@ -15708,7 +15708,7 @@
         <v>-5.7</v>
       </c>
       <c r="AX28" t="n">
-        <v>3</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="AY28" t="n">
         <v>14</v>
@@ -15735,7 +15735,7 @@
         <v>-4.5</v>
       </c>
       <c r="BG28" t="n">
-        <v>11.39999999999999</v>
+        <v>10.49999999999998</v>
       </c>
       <c r="BH28" t="n">
         <v>68.8</v>
@@ -15771,7 +15771,7 @@
         <v>-4.6</v>
       </c>
       <c r="BS28" t="n">
-        <v>2.499999999999989</v>
+        <v>2.299999999999968</v>
       </c>
       <c r="BT28" t="n">
         <v>110</v>
@@ -15789,7 +15789,7 @@
         <v>1.4</v>
       </c>
       <c r="BY28" t="n">
-        <v>3.899999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="BZ28" t="n">
         <v>29.8</v>
@@ -15798,7 +15798,7 @@
         <v>3.1</v>
       </c>
       <c r="CB28" t="n">
-        <v>205.8</v>
+        <v>151.3999999999999</v>
       </c>
       <c r="CC28" t="n">
         <v>1011</v>
@@ -15807,7 +15807,7 @@
         <v>-12.2</v>
       </c>
       <c r="CE28" t="n">
-        <v>26.09999999999999</v>
+        <v>16.49999999999998</v>
       </c>
       <c r="CF28" t="n">
         <v>122.5</v>
@@ -15816,7 +15816,7 @@
         <v>-13.4</v>
       </c>
       <c r="CH28" t="n">
-        <v>31.30000000000001</v>
+        <v>29</v>
       </c>
       <c r="CI28" t="n">
         <v>183.9</v>
@@ -15834,7 +15834,7 @@
         <v>-0.6</v>
       </c>
       <c r="CN28" t="n">
-        <v>36.70000000000002</v>
+        <v>35</v>
       </c>
       <c r="CO28" t="n">
         <v>181.3</v>
@@ -15843,7 +15843,7 @@
         <v>-11.6</v>
       </c>
       <c r="CQ28" t="n">
-        <v>43.79999999999995</v>
+        <v>38.29999999999991</v>
       </c>
       <c r="CR28" t="n">
         <v>216.4</v>
@@ -15861,7 +15861,7 @@
         <v>0.9</v>
       </c>
       <c r="CW28" t="n">
-        <v>108.2</v>
+        <v>100.7</v>
       </c>
       <c r="CX28" t="n">
         <v>576</v>
@@ -15870,7 +15870,7 @@
         <v>-8</v>
       </c>
       <c r="CZ28" t="n">
-        <v>31</v>
+        <v>26.79999999999999</v>
       </c>
       <c r="DA28" t="n">
         <v>189.3</v>
@@ -15879,7 +15879,7 @@
         <v>-3.1</v>
       </c>
       <c r="DC28" t="n">
-        <v>107.6</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="DD28" t="n">
         <v>586.6</v>
@@ -15888,7 +15888,7 @@
         <v>-10.1</v>
       </c>
       <c r="DF28" t="n">
-        <v>74.30000000000001</v>
+        <v>73.40000000000003</v>
       </c>
       <c r="DG28" t="n">
         <v>399.4</v>
@@ -15897,7 +15897,7 @@
         <v>-5.6</v>
       </c>
       <c r="DI28" t="n">
-        <v>0.1000000000000001</v>
+        <v>2.359223927328458e-16</v>
       </c>
       <c r="DJ28" t="n">
         <v>6.6</v>
@@ -15906,7 +15906,7 @@
         <v>4.8</v>
       </c>
       <c r="DL28" t="n">
-        <v>64</v>
+        <v>59.90000000000003</v>
       </c>
       <c r="DM28" t="n">
         <v>331.4</v>
@@ -15915,7 +15915,7 @@
         <v>-7.7</v>
       </c>
       <c r="DO28" t="n">
-        <v>18.60000000000001</v>
+        <v>14.70000000000002</v>
       </c>
       <c r="DP28" t="n">
         <v>110.4</v>
@@ -15924,7 +15924,7 @@
         <v>-7.8</v>
       </c>
       <c r="DR28" t="n">
-        <v>156.4</v>
+        <v>141.7</v>
       </c>
       <c r="DS28" t="n">
         <v>801.3</v>
@@ -15933,7 +15933,7 @@
         <v>-3.8</v>
       </c>
       <c r="DU28" t="n">
-        <v>14.5</v>
+        <v>13.69999999999999</v>
       </c>
       <c r="DV28" t="n">
         <v>77.5</v>
@@ -15951,7 +15951,7 @@
         <v>1</v>
       </c>
       <c r="EA28" t="n">
-        <v>55.10000000000002</v>
+        <v>52.80000000000001</v>
       </c>
       <c r="EB28" t="n">
         <v>315.8</v>
@@ -16138,7 +16138,7 @@
         <v>-3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.09999999999999985</v>
       </c>
       <c r="L29" t="n">
         <v>0.5</v>
@@ -16174,7 +16174,7 @@
         <v>-4.7</v>
       </c>
       <c r="W29" t="n">
-        <v>7.399999999999999</v>
+        <v>7.299999999999997</v>
       </c>
       <c r="X29" t="n">
         <v>42.9</v>
@@ -16192,7 +16192,7 @@
         <v>-12.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>15.3</v>
+        <v>14.19999999999999</v>
       </c>
       <c r="AD29" t="n">
         <v>90.2</v>
@@ -16219,7 +16219,7 @@
         <v>-6.2</v>
       </c>
       <c r="AL29" t="n">
-        <v>4.699999999999999</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="AM29" t="n">
         <v>24.7</v>
@@ -16246,7 +16246,7 @@
         <v>-7</v>
       </c>
       <c r="AU29" t="n">
-        <v>32.09999999999999</v>
+        <v>30.69999999999997</v>
       </c>
       <c r="AV29" t="n">
         <v>202.1</v>
@@ -16300,7 +16300,7 @@
         <v>-6.1</v>
       </c>
       <c r="BM29" t="n">
-        <v>11.8</v>
+        <v>10.79999999999998</v>
       </c>
       <c r="BN29" t="n">
         <v>73.3</v>
@@ -16318,7 +16318,7 @@
         <v>-3.4</v>
       </c>
       <c r="BS29" t="n">
-        <v>18.60000000000001</v>
+        <v>16.10000000000002</v>
       </c>
       <c r="BT29" t="n">
         <v>129.4</v>
@@ -16327,7 +16327,7 @@
         <v>2.1</v>
       </c>
       <c r="BV29" t="n">
-        <v>1.599999999999966</v>
+        <v>1.299999999999926</v>
       </c>
       <c r="BW29" t="n">
         <v>244.8</v>
@@ -16372,7 +16372,7 @@
         <v>-6.8</v>
       </c>
       <c r="CK29" t="n">
-        <v>2.599999999999998</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="CL29" t="n">
         <v>18.4</v>
@@ -16444,7 +16444,7 @@
         <v>-4.8</v>
       </c>
       <c r="DI29" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="DJ29" t="n">
         <v>7.7</v>
@@ -16507,7 +16507,7 @@
         <v>-0.5</v>
       </c>
       <c r="ED29" t="n">
-        <v>6.199999999999996</v>
+        <v>5.800000000000002</v>
       </c>
       <c r="EE29" t="n">
         <v>33.4</v>
@@ -16658,7 +16658,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.899999999999807</v>
+        <v>0.1999999999997044</v>
       </c>
       <c r="C30" t="n">
         <v>841.1</v>
@@ -16676,7 +16676,7 @@
         <v>-4.5</v>
       </c>
       <c r="H30" t="n">
-        <v>4.199999999999999</v>
+        <v>4.199999999999996</v>
       </c>
       <c r="I30" t="n">
         <v>30.4</v>
@@ -16685,7 +16685,7 @@
         <v>-2.6</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L30" t="n">
         <v>0.6</v>
@@ -16703,7 +16703,7 @@
         <v>-4.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>311.7999999999988</v>
+        <v>251.3999999999987</v>
       </c>
       <c r="R30" t="n">
         <v>17560</v>
@@ -16712,7 +16712,7 @@
         <v>-5.5</v>
       </c>
       <c r="T30" t="n">
-        <v>16.4999999999998</v>
+        <v>15.09999999999971</v>
       </c>
       <c r="U30" t="n">
         <v>1241.9</v>
@@ -16730,7 +16730,7 @@
         <v>-12</v>
       </c>
       <c r="Z30" t="n">
-        <v>79.49999999999955</v>
+        <v>63.79999999999927</v>
       </c>
       <c r="AA30" t="n">
         <v>2809.3</v>
@@ -16757,7 +16757,7 @@
         <v>-10.8</v>
       </c>
       <c r="AI30" t="n">
-        <v>317.2000000000044</v>
+        <v>255.3000000000066</v>
       </c>
       <c r="AJ30" t="n">
         <v>18390.4</v>
@@ -16784,7 +16784,7 @@
         <v>-17.4</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.799999999999979</v>
+        <v>2.499999999999968</v>
       </c>
       <c r="AS30" t="n">
         <v>195</v>
@@ -16820,7 +16820,7 @@
         <v>-8</v>
       </c>
       <c r="BD30" t="n">
-        <v>5.200000000000045</v>
+        <v>1.700000000000045</v>
       </c>
       <c r="BE30" t="n">
         <v>465.4</v>
@@ -16838,7 +16838,7 @@
         <v>-2.3</v>
       </c>
       <c r="BJ30" t="n">
-        <v>31.19999999999999</v>
+        <v>7.8000000000001</v>
       </c>
       <c r="BK30" t="n">
         <v>1279.7</v>
@@ -16856,7 +16856,7 @@
         <v>-8.4</v>
       </c>
       <c r="BP30" t="n">
-        <v>3.100000000000023</v>
+        <v>2.300000000000012</v>
       </c>
       <c r="BQ30" t="n">
         <v>358.8</v>
@@ -16883,7 +16883,7 @@
         <v>1.2</v>
       </c>
       <c r="BY30" t="n">
-        <v>4.5</v>
+        <v>3.599999999999995</v>
       </c>
       <c r="BZ30" t="n">
         <v>39.6</v>
@@ -16946,7 +16946,7 @@
         <v>-15.7</v>
       </c>
       <c r="CT30" t="n">
-        <v>17.10000000000042</v>
+        <v>15.50000000000074</v>
       </c>
       <c r="CU30" t="n">
         <v>1544.3</v>
@@ -16973,7 +16973,7 @@
         <v>-1.5</v>
       </c>
       <c r="DC30" t="n">
-        <v>3.099999999999994</v>
+        <v>1.799999999999983</v>
       </c>
       <c r="DD30" t="n">
         <v>800.4</v>
@@ -17000,7 +17000,7 @@
         <v>5.7</v>
       </c>
       <c r="DL30" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="DM30" t="n">
         <v>464.9</v>
@@ -17009,7 +17009,7 @@
         <v>-4.6</v>
       </c>
       <c r="DO30" t="n">
-        <v>4.199999999999989</v>
+        <v>1.799999999999998</v>
       </c>
       <c r="DP30" t="n">
         <v>152.8</v>
@@ -17018,7 +17018,7 @@
         <v>-4.1</v>
       </c>
       <c r="DR30" t="n">
-        <v>19.10000000000022</v>
+        <v>18.50000000000034</v>
       </c>
       <c r="DS30" t="n">
         <v>1122.8</v>
@@ -17036,7 +17036,7 @@
         <v>-1</v>
       </c>
       <c r="DX30" t="n">
-        <v>17.50000000000009</v>
+        <v>7.800000000000185</v>
       </c>
       <c r="DY30" t="n">
         <v>1100.8</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>108.6999999999999</v>
+        <v>103.8000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>963.8</v>
@@ -17214,7 +17214,7 @@
         <v>1.6</v>
       </c>
       <c r="E31" t="n">
-        <v>31.59999999999997</v>
+        <v>26.39999999999995</v>
       </c>
       <c r="F31" t="n">
         <v>259.6</v>
@@ -17241,7 +17241,7 @@
         <v>-44.4</v>
       </c>
       <c r="N31" t="n">
-        <v>88.20000000000005</v>
+        <v>79.89999999999998</v>
       </c>
       <c r="O31" t="n">
         <v>759.3</v>
@@ -17250,7 +17250,7 @@
         <v>-3.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>2379.599999999999</v>
+        <v>2067.8</v>
       </c>
       <c r="R31" t="n">
         <v>20397.2</v>
@@ -17259,7 +17259,7 @@
         <v>-4.2</v>
       </c>
       <c r="T31" t="n">
-        <v>171.8000000000002</v>
+        <v>155.3000000000004</v>
       </c>
       <c r="U31" t="n">
         <v>1434.9</v>
@@ -17268,7 +17268,7 @@
         <v>-3</v>
       </c>
       <c r="W31" t="n">
-        <v>7.099999999999994</v>
+        <v>6.999999999999993</v>
       </c>
       <c r="X31" t="n">
         <v>56.5</v>
@@ -17277,7 +17277,7 @@
         <v>-11</v>
       </c>
       <c r="Z31" t="n">
-        <v>341.2000000000003</v>
+        <v>261.7000000000007</v>
       </c>
       <c r="AA31" t="n">
         <v>3297.9</v>
@@ -17286,7 +17286,7 @@
         <v>-9</v>
       </c>
       <c r="AC31" t="n">
-        <v>16.69999999999999</v>
+        <v>14.39999999999998</v>
       </c>
       <c r="AD31" t="n">
         <v>123.1</v>
@@ -17295,7 +17295,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.9000000000000092</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="AG31" t="n">
         <v>191.6</v>
@@ -17304,7 +17304,7 @@
         <v>-9</v>
       </c>
       <c r="AI31" t="n">
-        <v>2488.700000000001</v>
+        <v>2171.499999999997</v>
       </c>
       <c r="AJ31" t="n">
         <v>21350.5</v>
@@ -17322,7 +17322,7 @@
         <v>-1.7</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.3999999999999994</v>
       </c>
       <c r="AP31" t="n">
         <v>2.2</v>
@@ -17331,7 +17331,7 @@
         <v>-18.5</v>
       </c>
       <c r="AR31" t="n">
-        <v>28.29999999999998</v>
+        <v>25.5</v>
       </c>
       <c r="AS31" t="n">
         <v>227.4</v>
@@ -17340,7 +17340,7 @@
         <v>-4.1</v>
       </c>
       <c r="AU31" t="n">
-        <v>33.30000000000001</v>
+        <v>31.4</v>
       </c>
       <c r="AV31" t="n">
         <v>267.1</v>
@@ -17349,7 +17349,7 @@
         <v>-4.9</v>
       </c>
       <c r="AX31" t="n">
-        <v>3.100000000000001</v>
+        <v>2.700000000000002</v>
       </c>
       <c r="AY31" t="n">
         <v>22.9</v>
@@ -17358,7 +17358,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="BA31" t="n">
-        <v>16.69999999999999</v>
+        <v>15.29999999999999</v>
       </c>
       <c r="BB31" t="n">
         <v>123.3</v>
@@ -17367,7 +17367,7 @@
         <v>-6.5</v>
       </c>
       <c r="BD31" t="n">
-        <v>65.69999999999993</v>
+        <v>60.49999999999989</v>
       </c>
       <c r="BE31" t="n">
         <v>536.3</v>
@@ -17376,7 +17376,7 @@
         <v>-1.8</v>
       </c>
       <c r="BG31" t="n">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
       <c r="BH31" t="n">
         <v>107.2</v>
@@ -17385,7 +17385,7 @@
         <v>-2.4</v>
       </c>
       <c r="BJ31" t="n">
-        <v>193.3999999999999</v>
+        <v>162.1999999999999</v>
       </c>
       <c r="BK31" t="n">
         <v>1502.3</v>
@@ -17394,7 +17394,7 @@
         <v>-4.6</v>
       </c>
       <c r="BM31" t="n">
-        <v>10.90000000000001</v>
+        <v>10.20000000000001</v>
       </c>
       <c r="BN31" t="n">
         <v>98</v>
@@ -17403,7 +17403,7 @@
         <v>-6.2</v>
       </c>
       <c r="BP31" t="n">
-        <v>44.79999999999995</v>
+        <v>41.69999999999992</v>
       </c>
       <c r="BQ31" t="n">
         <v>408.9</v>
@@ -17412,7 +17412,7 @@
         <v>-2.6</v>
       </c>
       <c r="BS31" t="n">
-        <v>18.39999999999998</v>
+        <v>17.99999999999999</v>
       </c>
       <c r="BT31" t="n">
         <v>170.6</v>
@@ -17421,7 +17421,7 @@
         <v>3.8</v>
       </c>
       <c r="BV31" t="n">
-        <v>35.10000000000002</v>
+        <v>34.60000000000002</v>
       </c>
       <c r="BW31" t="n">
         <v>324.9</v>
@@ -17439,7 +17439,7 @@
         <v>12.1</v>
       </c>
       <c r="CB31" t="n">
-        <v>189.4000000000001</v>
+        <v>134.1000000000001</v>
       </c>
       <c r="CC31" t="n">
         <v>1661.4</v>
@@ -17448,7 +17448,7 @@
         <v>-7.9</v>
       </c>
       <c r="CE31" t="n">
-        <v>25.40000000000001</v>
+        <v>21.80000000000002</v>
       </c>
       <c r="CF31" t="n">
         <v>189.8</v>
@@ -17457,7 +17457,7 @@
         <v>-13</v>
       </c>
       <c r="CH31" t="n">
-        <v>31.09999999999997</v>
+        <v>28.39999999999998</v>
       </c>
       <c r="CI31" t="n">
         <v>284.2</v>
@@ -17466,7 +17466,7 @@
         <v>-3.9</v>
       </c>
       <c r="CK31" t="n">
-        <v>1.299999999999998</v>
+        <v>1.299999999999995</v>
       </c>
       <c r="CL31" t="n">
         <v>24</v>
@@ -17475,7 +17475,7 @@
         <v>-1.2</v>
       </c>
       <c r="CN31" t="n">
-        <v>36.60000000000002</v>
+        <v>34.30000000000005</v>
       </c>
       <c r="CO31" t="n">
         <v>295.7</v>
@@ -17493,7 +17493,7 @@
         <v>-14.8</v>
       </c>
       <c r="CT31" t="n">
-        <v>203.8</v>
+        <v>186.6999999999996</v>
       </c>
       <c r="CU31" t="n">
         <v>1792.9</v>
@@ -17502,7 +17502,7 @@
         <v>2.9</v>
       </c>
       <c r="CW31" t="n">
-        <v>110</v>
+        <v>101.7999999999998</v>
       </c>
       <c r="CX31" t="n">
         <v>926.7</v>
@@ -17511,7 +17511,7 @@
         <v>-3.2</v>
       </c>
       <c r="CZ31" t="n">
-        <v>37.19999999999999</v>
+        <v>34</v>
       </c>
       <c r="DA31" t="n">
         <v>295.6</v>
@@ -17520,7 +17520,7 @@
         <v>-1.2</v>
       </c>
       <c r="DC31" t="n">
-        <v>92.09999999999991</v>
+        <v>88.99999999999991</v>
       </c>
       <c r="DD31" t="n">
         <v>919.8</v>
@@ -17529,7 +17529,7 @@
         <v>-6.2</v>
       </c>
       <c r="DF31" t="n">
-        <v>74</v>
+        <v>69.09999999999997</v>
       </c>
       <c r="DG31" t="n">
         <v>628.4</v>
@@ -17538,7 +17538,7 @@
         <v>-3.4</v>
       </c>
       <c r="DI31" t="n">
-        <v>1.200000000000001</v>
+        <v>0.9000000000000012</v>
       </c>
       <c r="DJ31" t="n">
         <v>10.7</v>
@@ -17547,7 +17547,7 @@
         <v>5.9</v>
       </c>
       <c r="DL31" t="n">
-        <v>67.29999999999995</v>
+        <v>62.29999999999995</v>
       </c>
       <c r="DM31" t="n">
         <v>539.4</v>
@@ -17556,7 +17556,7 @@
         <v>-3.2</v>
       </c>
       <c r="DO31" t="n">
-        <v>21.90000000000001</v>
+        <v>17.70000000000002</v>
       </c>
       <c r="DP31" t="n">
         <v>182.8</v>
@@ -17565,7 +17565,7 @@
         <v>-0.9</v>
       </c>
       <c r="DR31" t="n">
-        <v>170.7</v>
+        <v>151.5999999999998</v>
       </c>
       <c r="DS31" t="n">
         <v>1309.2</v>
@@ -17574,7 +17574,7 @@
         <v>-1</v>
       </c>
       <c r="DU31" t="n">
-        <v>15.3</v>
+        <v>13.70000000000001</v>
       </c>
       <c r="DV31" t="n">
         <v>124.9</v>
@@ -17583,7 +17583,7 @@
         <v>0.2</v>
       </c>
       <c r="DX31" t="n">
-        <v>139.9000000000001</v>
+        <v>122.4</v>
       </c>
       <c r="DY31" t="n">
         <v>1251</v>
@@ -17592,7 +17592,7 @@
         <v>-0.4</v>
       </c>
       <c r="EA31" t="n">
-        <v>55.10000000000002</v>
+        <v>50.70000000000005</v>
       </c>
       <c r="EB31" t="n">
         <v>491.4</v>
@@ -17601,7 +17601,7 @@
         <v>1.5</v>
       </c>
       <c r="ED31" t="n">
-        <v>0.09999999999999432</v>
+        <v>0.09999999999998721</v>
       </c>
       <c r="EE31" t="n">
         <v>45</v>
@@ -17770,7 +17770,7 @@
         <v>-2.8</v>
       </c>
       <c r="H32" t="n">
-        <v>4.300000000000004</v>
+        <v>4.100000000000005</v>
       </c>
       <c r="I32" t="n">
         <v>39.1</v>
@@ -17779,7 +17779,7 @@
         <v>-1.8</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="L32" t="n">
         <v>0.5</v>
@@ -17842,7 +17842,7 @@
         <v>-7.6</v>
       </c>
       <c r="AF32" t="n">
-        <v>2.300000000000011</v>
+        <v>1.400000000000002</v>
       </c>
       <c r="AG32" t="n">
         <v>217.5</v>
@@ -17860,7 +17860,7 @@
         <v>-3.2</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.9000000000000057</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="AM32" t="n">
         <v>40.7</v>
@@ -18013,7 +18013,7 @@
         <v>-2.7</v>
       </c>
       <c r="CK32" t="n">
-        <v>3.100000000000001</v>
+        <v>1.800000000000003</v>
       </c>
       <c r="CL32" t="n">
         <v>26.6</v>
@@ -18031,7 +18031,7 @@
         <v>-4.8</v>
       </c>
       <c r="CQ32" t="n">
-        <v>7.199999999999989</v>
+        <v>5.599999999999966</v>
       </c>
       <c r="CR32" t="n">
         <v>380.4</v>
@@ -18148,7 +18148,7 @@
         <v>2.5</v>
       </c>
       <c r="ED32" t="n">
-        <v>6.200000000000003</v>
+        <v>6.100000000000009</v>
       </c>
       <c r="EE32" t="n">
         <v>50.3</v>
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>65.99999999999982</v>
+        <v>56.89999999999952</v>
       </c>
       <c r="C33" t="n">
         <v>1214.4</v>
@@ -18308,7 +18308,7 @@
         <v>3.4</v>
       </c>
       <c r="E33" t="n">
-        <v>24.29999999999995</v>
+        <v>20.7999999999999</v>
       </c>
       <c r="F33" t="n">
         <v>329.8</v>
@@ -18335,7 +18335,7 @@
         <v>-50</v>
       </c>
       <c r="N33" t="n">
-        <v>19.60000000000007</v>
+        <v>14.10000000000018</v>
       </c>
       <c r="O33" t="n">
         <v>943.9</v>
@@ -18344,7 +18344,7 @@
         <v>-2.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>812.0999999999976</v>
+        <v>553.4999999999955</v>
       </c>
       <c r="R33" t="n">
         <v>25592.7</v>
@@ -18353,7 +18353,7 @@
         <v>-2.7</v>
       </c>
       <c r="T33" t="n">
-        <v>32.2000000000003</v>
+        <v>16.80000000000072</v>
       </c>
       <c r="U33" t="n">
         <v>1808.7</v>
@@ -18371,7 +18371,7 @@
         <v>-6.3</v>
       </c>
       <c r="Z33" t="n">
-        <v>101.1999999999998</v>
+        <v>40.70000000000025</v>
       </c>
       <c r="AA33" t="n">
         <v>4107.1</v>
@@ -18380,7 +18380,7 @@
         <v>-5.9</v>
       </c>
       <c r="AC33" t="n">
-        <v>5.200000000000021</v>
+        <v>2.800000000000018</v>
       </c>
       <c r="AD33" t="n">
         <v>157.5</v>
@@ -18389,7 +18389,7 @@
         <v>-7.7</v>
       </c>
       <c r="AF33" t="n">
-        <v>11.29999999999998</v>
+        <v>8.999999999999968</v>
       </c>
       <c r="AG33" t="n">
         <v>245.9</v>
@@ -18398,7 +18398,7 @@
         <v>-7.1</v>
       </c>
       <c r="AI33" t="n">
-        <v>858.6000000000058</v>
+        <v>590.6000000000099</v>
       </c>
       <c r="AJ33" t="n">
         <v>26784.7</v>
@@ -18407,7 +18407,7 @@
         <v>-2.6</v>
       </c>
       <c r="AL33" t="n">
-        <v>1.099999999999994</v>
+        <v>0.1999999999999884</v>
       </c>
       <c r="AM33" t="n">
         <v>44.7</v>
@@ -18416,7 +18416,7 @@
         <v>-2.2</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="AP33" t="n">
         <v>3.1</v>
@@ -18425,7 +18425,7 @@
         <v>-13.9</v>
       </c>
       <c r="AR33" t="n">
-        <v>7.599999999999898</v>
+        <v>4.699999999999829</v>
       </c>
       <c r="AS33" t="n">
         <v>280.1</v>
@@ -18434,7 +18434,7 @@
         <v>-5.6</v>
       </c>
       <c r="AU33" t="n">
-        <v>9.50000000000005</v>
+        <v>6.900000000000084</v>
       </c>
       <c r="AV33" t="n">
         <v>338.6</v>
@@ -18452,7 +18452,7 @@
         <v>-17.7</v>
       </c>
       <c r="BA33" t="n">
-        <v>5.69999999999996</v>
+        <v>3.199999999999928</v>
       </c>
       <c r="BB33" t="n">
         <v>156.8</v>
@@ -18461,7 +18461,7 @@
         <v>-6.6</v>
       </c>
       <c r="BD33" t="n">
-        <v>20.5</v>
+        <v>18.59999999999991</v>
       </c>
       <c r="BE33" t="n">
         <v>671.7</v>
@@ -18470,7 +18470,7 @@
         <v>-1.1</v>
       </c>
       <c r="BG33" t="n">
-        <v>9.700000000000021</v>
+        <v>6.400000000000031</v>
       </c>
       <c r="BH33" t="n">
         <v>135</v>
@@ -18488,7 +18488,7 @@
         <v>-2.8</v>
       </c>
       <c r="BM33" t="n">
-        <v>16.40000000000001</v>
+        <v>14.30000000000002</v>
       </c>
       <c r="BN33" t="n">
         <v>122.9</v>
@@ -18497,7 +18497,7 @@
         <v>-4.3</v>
       </c>
       <c r="BP33" t="n">
-        <v>8.5</v>
+        <v>7.699999999999925</v>
       </c>
       <c r="BQ33" t="n">
         <v>508.9</v>
@@ -18506,7 +18506,7 @@
         <v>-0.2</v>
       </c>
       <c r="BS33" t="n">
-        <v>15.39999999999998</v>
+        <v>12.69999999999994</v>
       </c>
       <c r="BT33" t="n">
         <v>213.6</v>
@@ -18515,7 +18515,7 @@
         <v>4.8</v>
       </c>
       <c r="BV33" t="n">
-        <v>31.30000000000006</v>
+        <v>24.80000000000011</v>
       </c>
       <c r="BW33" t="n">
         <v>406.8</v>
@@ -18524,7 +18524,7 @@
         <v>3.5</v>
       </c>
       <c r="BY33" t="n">
-        <v>6.300000000000002</v>
+        <v>5.900000000000003</v>
       </c>
       <c r="BZ33" t="n">
         <v>58.2</v>
@@ -18533,7 +18533,7 @@
         <v>11.3</v>
       </c>
       <c r="CB33" t="n">
-        <v>71</v>
+        <v>41.80000000000018</v>
       </c>
       <c r="CC33" t="n">
         <v>2093.4</v>
@@ -18560,7 +18560,7 @@
         <v>-3.3</v>
       </c>
       <c r="CK33" t="n">
-        <v>3.999999999999997</v>
+        <v>0.8999999999999959</v>
       </c>
       <c r="CL33" t="n">
         <v>30.1</v>
@@ -18569,7 +18569,7 @@
         <v>-3.8</v>
       </c>
       <c r="CN33" t="n">
-        <v>10.60000000000002</v>
+        <v>7.000000000000053</v>
       </c>
       <c r="CO33" t="n">
         <v>381.8</v>
@@ -18578,7 +18578,7 @@
         <v>-3</v>
       </c>
       <c r="CQ33" t="n">
-        <v>9.300000000000068</v>
+        <v>2.10000000000008</v>
       </c>
       <c r="CR33" t="n">
         <v>430.2</v>
@@ -18587,7 +18587,7 @@
         <v>-14</v>
       </c>
       <c r="CT33" t="n">
-        <v>158.7000000000005</v>
+        <v>130.5000000000007</v>
       </c>
       <c r="CU33" t="n">
         <v>2221.4</v>
@@ -18596,7 +18596,7 @@
         <v>2</v>
       </c>
       <c r="CW33" t="n">
-        <v>45.49999999999979</v>
+        <v>31.79999999999979</v>
       </c>
       <c r="CX33" t="n">
         <v>1175.7</v>
@@ -18623,7 +18623,7 @@
         <v>-6.5</v>
       </c>
       <c r="DF33" t="n">
-        <v>15.20000000000005</v>
+        <v>12.30000000000007</v>
       </c>
       <c r="DG33" t="n">
         <v>785.3</v>
@@ -18632,7 +18632,7 @@
         <v>-2</v>
       </c>
       <c r="DI33" t="n">
-        <v>1.200000000000002</v>
+        <v>0.8000000000000034</v>
       </c>
       <c r="DJ33" t="n">
         <v>13.2</v>
@@ -18641,7 +18641,7 @@
         <v>12.8</v>
       </c>
       <c r="DL33" t="n">
-        <v>29.7</v>
+        <v>24.49999999999995</v>
       </c>
       <c r="DM33" t="n">
         <v>693.9</v>
@@ -18650,7 +18650,7 @@
         <v>-0.4</v>
       </c>
       <c r="DO33" t="n">
-        <v>11.30000000000004</v>
+        <v>5.90000000000007</v>
       </c>
       <c r="DP33" t="n">
         <v>228.3</v>
@@ -18659,7 +18659,7 @@
         <v>-2.3</v>
       </c>
       <c r="DR33" t="n">
-        <v>31.60000000000042</v>
+        <v>12.60000000000062</v>
       </c>
       <c r="DS33" t="n">
         <v>1684.3</v>
@@ -18668,7 +18668,7 @@
         <v>0.1</v>
       </c>
       <c r="DU33" t="n">
-        <v>2.300000000000011</v>
+        <v>0.400000000000023</v>
       </c>
       <c r="DV33" t="n">
         <v>159.2</v>
@@ -18677,7 +18677,7 @@
         <v>1.3</v>
       </c>
       <c r="DX33" t="n">
-        <v>32.80000000000018</v>
+        <v>22.10000000000036</v>
       </c>
       <c r="DY33" t="n">
         <v>1540.3</v>
@@ -18686,7 +18686,7 @@
         <v>-0.4</v>
       </c>
       <c r="EA33" t="n">
-        <v>12.39999999999998</v>
+        <v>7.899999999999981</v>
       </c>
       <c r="EB33" t="n">
         <v>617.7</v>
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.6</v>
+        <v>76.60000000000018</v>
       </c>
       <c r="C34" t="n">
         <v>1416.6</v>
@@ -18855,7 +18855,7 @@
         <v>4.3</v>
       </c>
       <c r="E34" t="n">
-        <v>43.9</v>
+        <v>19.60000000000005</v>
       </c>
       <c r="F34" t="n">
         <v>391.1</v>
@@ -18882,7 +18882,7 @@
         <v>-45.5</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2</v>
+        <v>4.59999999999993</v>
       </c>
       <c r="O34" t="n">
         <v>1056.2</v>
@@ -18891,7 +18891,7 @@
         <v>-2.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>3409.2</v>
+        <v>2597.100000000002</v>
       </c>
       <c r="R34" t="n">
         <v>29125.4</v>
@@ -18927,7 +18927,7 @@
         <v>-4.8</v>
       </c>
       <c r="AC34" t="n">
-        <v>20.6</v>
+        <v>15.39999999999998</v>
       </c>
       <c r="AD34" t="n">
         <v>180.9</v>
@@ -18936,7 +18936,7 @@
         <v>-7.2</v>
       </c>
       <c r="AF34" t="n">
-        <v>29.7</v>
+        <v>18.40000000000002</v>
       </c>
       <c r="AG34" t="n">
         <v>283</v>
@@ -18945,7 +18945,7 @@
         <v>-6.9</v>
       </c>
       <c r="AI34" t="n">
-        <v>3588.2</v>
+        <v>2729.599999999994</v>
       </c>
       <c r="AJ34" t="n">
         <v>30480.2</v>
@@ -18954,7 +18954,7 @@
         <v>-2</v>
       </c>
       <c r="AL34" t="n">
-        <v>5.5</v>
+        <v>4.400000000000006</v>
       </c>
       <c r="AM34" t="n">
         <v>51.7</v>
@@ -18963,7 +18963,7 @@
         <v>-1</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.5</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AP34" t="n">
         <v>4</v>
@@ -18990,7 +18990,7 @@
         <v>0</v>
       </c>
       <c r="AX34" t="n">
-        <v>3.7</v>
+        <v>2.899999999999996</v>
       </c>
       <c r="AY34" t="n">
         <v>30.9</v>
@@ -18999,7 +18999,7 @@
         <v>-18.5</v>
       </c>
       <c r="BA34" t="n">
-        <v>18.8</v>
+        <v>13.10000000000004</v>
       </c>
       <c r="BB34" t="n">
         <v>180.2</v>
@@ -19008,7 +19008,7 @@
         <v>-6.5</v>
       </c>
       <c r="BD34" t="n">
-        <v>84.09999999999999</v>
+        <v>63.59999999999999</v>
       </c>
       <c r="BE34" t="n">
         <v>761.9</v>
@@ -19017,7 +19017,7 @@
         <v>-0.7</v>
       </c>
       <c r="BG34" t="n">
-        <v>23.1</v>
+        <v>13.39999999999998</v>
       </c>
       <c r="BH34" t="n">
         <v>159</v>
@@ -19026,7 +19026,7 @@
         <v>-1.5</v>
       </c>
       <c r="BJ34" t="n">
-        <v>220.6</v>
+        <v>192.8</v>
       </c>
       <c r="BK34" t="n">
         <v>2187.6</v>
@@ -19035,7 +19035,7 @@
         <v>-2.8</v>
       </c>
       <c r="BM34" t="n">
-        <v>17.5</v>
+        <v>1.099999999999991</v>
       </c>
       <c r="BN34" t="n">
         <v>147.7</v>
@@ -19044,7 +19044,7 @@
         <v>-6.4</v>
       </c>
       <c r="BP34" t="n">
-        <v>17.09999999999998</v>
+        <v>8.59999999999998</v>
       </c>
       <c r="BQ34" t="n">
         <v>563.7</v>
@@ -19062,7 +19062,7 @@
         <v>5</v>
       </c>
       <c r="BV34" t="n">
-        <v>71.7</v>
+        <v>40.39999999999994</v>
       </c>
       <c r="BW34" t="n">
         <v>478.9</v>
@@ -19071,7 +19071,7 @@
         <v>2.8</v>
       </c>
       <c r="BY34" t="n">
-        <v>10</v>
+        <v>3.699999999999998</v>
       </c>
       <c r="BZ34" t="n">
         <v>67.59999999999999</v>
@@ -19080,7 +19080,7 @@
         <v>5.8</v>
       </c>
       <c r="CB34" t="n">
-        <v>241.8</v>
+        <v>170.8</v>
       </c>
       <c r="CC34" t="n">
         <v>2429.2</v>
@@ -19089,7 +19089,7 @@
         <v>-2.9</v>
       </c>
       <c r="CE34" t="n">
-        <v>28.7</v>
+        <v>24.59999999999995</v>
       </c>
       <c r="CF34" t="n">
         <v>259.1</v>
@@ -19107,7 +19107,7 @@
         <v>-3.2</v>
       </c>
       <c r="CK34" t="n">
-        <v>6.1</v>
+        <v>2.100000000000003</v>
       </c>
       <c r="CL34" t="n">
         <v>34.9</v>
@@ -19116,7 +19116,7 @@
         <v>-9.1</v>
       </c>
       <c r="CN34" t="n">
-        <v>46</v>
+        <v>35.39999999999998</v>
       </c>
       <c r="CO34" t="n">
         <v>432.6</v>
@@ -19125,7 +19125,7 @@
         <v>-2.7</v>
       </c>
       <c r="CQ34" t="n">
-        <v>62.1</v>
+        <v>52.79999999999993</v>
       </c>
       <c r="CR34" t="n">
         <v>488.7</v>
@@ -19134,7 +19134,7 @@
         <v>-13.7</v>
       </c>
       <c r="CT34" t="n">
-        <v>307</v>
+        <v>148.2999999999995</v>
       </c>
       <c r="CU34" t="n">
         <v>2608.7</v>
@@ -19143,7 +19143,7 @@
         <v>1.5</v>
       </c>
       <c r="CW34" t="n">
-        <v>141.6</v>
+        <v>96.10000000000021</v>
       </c>
       <c r="CX34" t="n">
         <v>1359.8</v>
@@ -19152,7 +19152,7 @@
         <v>-0.1</v>
       </c>
       <c r="CZ34" t="n">
-        <v>10.19999999999997</v>
+        <v>10.19999999999992</v>
       </c>
       <c r="DA34" t="n">
         <v>421.7</v>
@@ -19161,7 +19161,7 @@
         <v>1</v>
       </c>
       <c r="DC34" t="n">
-        <v>67.59999999999999</v>
+        <v>40.00000000000009</v>
       </c>
       <c r="DD34" t="n">
         <v>1185</v>
@@ -19188,7 +19188,7 @@
         <v>13.5</v>
       </c>
       <c r="DL34" t="n">
-        <v>84.40000000000001</v>
+        <v>54.7</v>
       </c>
       <c r="DM34" t="n">
         <v>797.5</v>
@@ -19197,7 +19197,7 @@
         <v>-0.2</v>
       </c>
       <c r="DO34" t="n">
-        <v>25</v>
+        <v>13.69999999999996</v>
       </c>
       <c r="DP34" t="n">
         <v>265</v>
@@ -19206,7 +19206,7 @@
         <v>-2.7</v>
       </c>
       <c r="DR34" t="n">
-        <v>189.9</v>
+        <v>158.2999999999996</v>
       </c>
       <c r="DS34" t="n">
         <v>1918.4</v>
@@ -19215,7 +19215,7 @@
         <v>0.8</v>
       </c>
       <c r="DU34" t="n">
-        <v>18.1</v>
+        <v>15.79999999999999</v>
       </c>
       <c r="DV34" t="n">
         <v>180.2</v>
@@ -19224,7 +19224,7 @@
         <v>2</v>
       </c>
       <c r="DX34" t="n">
-        <v>64.2999999999999</v>
+        <v>31.49999999999972</v>
       </c>
       <c r="DY34" t="n">
         <v>1709</v>
@@ -19233,7 +19233,7 @@
         <v>-1.2</v>
       </c>
       <c r="EA34" t="n">
-        <v>16.5</v>
+        <v>4.100000000000019</v>
       </c>
       <c r="EB34" t="n">
         <v>699</v>
@@ -19411,7 +19411,7 @@
         <v>37.4</v>
       </c>
       <c r="H35" t="n">
-        <v>4.199999999999999</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="I35" t="n">
         <v>8.5</v>
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>85.90000000000001</v>
+        <v>61.7</v>
       </c>
       <c r="O35" t="n">
         <v>171.4</v>
@@ -19447,7 +19447,7 @@
         <v>31.6</v>
       </c>
       <c r="T35" t="n">
-        <v>173.6</v>
+        <v>152.6000000000001</v>
       </c>
       <c r="U35" t="n">
         <v>315.5</v>
@@ -19456,7 +19456,7 @@
         <v>31.2</v>
       </c>
       <c r="W35" t="n">
-        <v>6.200000000000001</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="X35" t="n">
         <v>14.8</v>
@@ -19465,7 +19465,7 @@
         <v>46.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>331.3000000000001</v>
+        <v>234.8999999999997</v>
       </c>
       <c r="AA35" t="n">
         <v>728.5</v>
@@ -19519,7 +19519,7 @@
         <v>0</v>
       </c>
       <c r="AR35" t="n">
-        <v>25.7</v>
+        <v>25.49999999999995</v>
       </c>
       <c r="AS35" t="n">
         <v>53.8</v>
@@ -19528,7 +19528,7 @@
         <v>37.9</v>
       </c>
       <c r="AU35" t="n">
-        <v>29.6</v>
+        <v>27.90000000000003</v>
       </c>
       <c r="AV35" t="n">
         <v>61.5</v>
@@ -19591,7 +19591,7 @@
         <v>20</v>
       </c>
       <c r="BP35" t="n">
-        <v>52</v>
+        <v>34.90000000000002</v>
       </c>
       <c r="BQ35" t="n">
         <v>96.5</v>
@@ -19600,7 +19600,7 @@
         <v>35.5</v>
       </c>
       <c r="BS35" t="n">
-        <v>19.3</v>
+        <v>17.2</v>
       </c>
       <c r="BT35" t="n">
         <v>44.4</v>
@@ -19645,7 +19645,7 @@
         <v>16.7</v>
       </c>
       <c r="CH35" t="n">
-        <v>32.89999999999999</v>
+        <v>19.89999999999998</v>
       </c>
       <c r="CI35" t="n">
         <v>61.8</v>
@@ -19699,7 +19699,7 @@
         <v>48.8</v>
       </c>
       <c r="CZ35" t="n">
-        <v>35.5</v>
+        <v>25.30000000000003</v>
       </c>
       <c r="DA35" t="n">
         <v>64.90000000000001</v>
@@ -19708,7 +19708,7 @@
         <v>27.8</v>
       </c>
       <c r="DC35" t="n">
-        <v>95.50000000000003</v>
+        <v>27.90000000000003</v>
       </c>
       <c r="DD35" t="n">
         <v>212.7</v>
@@ -19717,7 +19717,7 @@
         <v>21.1</v>
       </c>
       <c r="DF35" t="n">
-        <v>77.50000000000001</v>
+        <v>62.30000000000004</v>
       </c>
       <c r="DG35" t="n">
         <v>142.4</v>
@@ -19726,7 +19726,7 @@
         <v>32.7</v>
       </c>
       <c r="DI35" t="n">
-        <v>1.3</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="DJ35" t="n">
         <v>2.3</v>
@@ -19771,7 +19771,7 @@
         <v>41.4</v>
       </c>
       <c r="DX35" t="n">
-        <v>145.4</v>
+        <v>81.10000000000011</v>
       </c>
       <c r="DY35" t="n">
         <v>279</v>
@@ -19780,7 +19780,7 @@
         <v>12.6</v>
       </c>
       <c r="EA35" t="n">
-        <v>56</v>
+        <v>39.5</v>
       </c>
       <c r="EB35" t="n">
         <v>109.4</v>
@@ -19789,7 +19789,7 @@
         <v>23.6</v>
       </c>
       <c r="ED35" t="n">
-        <v>5.9</v>
+        <v>3.599999999999998</v>
       </c>
       <c r="EE35" t="n">
         <v>9.9</v>
@@ -20505,7 +20505,7 @@
         <v>33.3</v>
       </c>
       <c r="H37" t="n">
-        <v>4.1</v>
+        <v>3.999999999999998</v>
       </c>
       <c r="I37" t="n">
         <v>17.8</v>
@@ -20523,7 +20523,7 @@
         <v>-50</v>
       </c>
       <c r="N37" t="n">
-        <v>85.30000000000001</v>
+        <v>83.20000000000005</v>
       </c>
       <c r="O37" t="n">
         <v>355.1</v>
@@ -20550,7 +20550,7 @@
         <v>17.7</v>
       </c>
       <c r="W37" t="n">
-        <v>6.5</v>
+        <v>6.100000000000003</v>
       </c>
       <c r="X37" t="n">
         <v>29.3</v>
@@ -20586,7 +20586,7 @@
         <v>33.3</v>
       </c>
       <c r="AI37" t="n">
-        <v>32.30000000000109</v>
+        <v>13.800000000002</v>
       </c>
       <c r="AJ37" t="n">
         <v>10133.7</v>
@@ -20622,7 +20622,7 @@
         <v>29</v>
       </c>
       <c r="AU37" t="n">
-        <v>30.09999999999999</v>
+        <v>28.3</v>
       </c>
       <c r="AV37" t="n">
         <v>132.7</v>
@@ -20676,7 +20676,7 @@
         <v>25.9</v>
       </c>
       <c r="BM37" t="n">
-        <v>9.599999999999994</v>
+        <v>8.199999999999994</v>
       </c>
       <c r="BN37" t="n">
         <v>43.9</v>
@@ -20694,7 +20694,7 @@
         <v>13.2</v>
       </c>
       <c r="BS37" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="BT37" t="n">
         <v>88.8</v>
@@ -20721,7 +20721,7 @@
         <v>10.4</v>
       </c>
       <c r="CB37" t="n">
-        <v>184.7</v>
+        <v>170.6</v>
       </c>
       <c r="CC37" t="n">
         <v>802.1</v>
@@ -20748,7 +20748,7 @@
         <v>5.6</v>
       </c>
       <c r="CK37" t="n">
-        <v>2.4</v>
+        <v>1.900000000000002</v>
       </c>
       <c r="CL37" t="n">
         <v>12.2</v>
@@ -20757,7 +20757,7 @@
         <v>10.9</v>
       </c>
       <c r="CN37" t="n">
-        <v>33.3</v>
+        <v>31.5</v>
       </c>
       <c r="CO37" t="n">
         <v>138.8</v>
@@ -20829,7 +20829,7 @@
         <v>16.3</v>
       </c>
       <c r="DL37" t="n">
-        <v>61.5</v>
+        <v>60.49999999999997</v>
       </c>
       <c r="DM37" t="n">
         <v>270.6</v>
@@ -20847,7 +20847,7 @@
         <v>29</v>
       </c>
       <c r="DR37" t="n">
-        <v>17.7000000000001</v>
+        <v>4.500000000000108</v>
       </c>
       <c r="DS37" t="n">
         <v>611.2</v>
@@ -20874,7 +20874,7 @@
         <v>7.8</v>
       </c>
       <c r="EA37" t="n">
-        <v>55.40000000000003</v>
+        <v>55.20000000000004</v>
       </c>
       <c r="EB37" t="n">
         <v>228.8</v>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34.09999999999999</v>
+        <v>33.99999999999999</v>
       </c>
       <c r="C38" t="n">
         <v>678.9</v>
@@ -21043,7 +21043,7 @@
         <v>38.2</v>
       </c>
       <c r="E38" t="n">
-        <v>7.999999999999968</v>
+        <v>6.799999999999947</v>
       </c>
       <c r="F38" t="n">
         <v>167.9</v>
@@ -21061,7 +21061,7 @@
         <v>21.6</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L38" t="n">
         <v>0.2</v>
@@ -21079,7 +21079,7 @@
         <v>12.1</v>
       </c>
       <c r="Q38" t="n">
-        <v>442.0000000000014</v>
+        <v>412.8000000000016</v>
       </c>
       <c r="R38" t="n">
         <v>12138.1</v>
@@ -21124,7 +21124,7 @@
         <v>20.8</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.400000000000009</v>
+        <v>0.8000000000000183</v>
       </c>
       <c r="AG38" t="n">
         <v>123.8</v>
@@ -21133,7 +21133,7 @@
         <v>31.3</v>
       </c>
       <c r="AI38" t="n">
-        <v>460.7999999999988</v>
+        <v>428.4999999999977</v>
       </c>
       <c r="AJ38" t="n">
         <v>12703.6</v>
@@ -21142,7 +21142,7 @@
         <v>19.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.9999999999999987</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AM38" t="n">
         <v>24.7</v>
@@ -21160,7 +21160,7 @@
         <v>63.6</v>
       </c>
       <c r="AR38" t="n">
-        <v>7.599999999999991</v>
+        <v>7.499999999999982</v>
       </c>
       <c r="AS38" t="n">
         <v>142.5</v>
@@ -21178,7 +21178,7 @@
         <v>22.1</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.4999999999999978</v>
+        <v>0.2999999999999967</v>
       </c>
       <c r="AY38" t="n">
         <v>10.7</v>
@@ -21196,7 +21196,7 @@
         <v>19.5</v>
       </c>
       <c r="BD38" t="n">
-        <v>7.500000000000057</v>
+        <v>5.900000000000091</v>
       </c>
       <c r="BE38" t="n">
         <v>329.8</v>
@@ -21205,7 +21205,7 @@
         <v>21.7</v>
       </c>
       <c r="BG38" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BH38" t="n">
         <v>65.90000000000001</v>
@@ -21214,7 +21214,7 @@
         <v>15</v>
       </c>
       <c r="BJ38" t="n">
-        <v>184.8</v>
+        <v>183.4999999999998</v>
       </c>
       <c r="BK38" t="n">
         <v>857.6</v>
@@ -21232,7 +21232,7 @@
         <v>9.5</v>
       </c>
       <c r="BP38" t="n">
-        <v>11.5</v>
+        <v>9.600000000000009</v>
       </c>
       <c r="BQ38" t="n">
         <v>234.1</v>
@@ -21277,7 +21277,7 @@
         <v>30.2</v>
       </c>
       <c r="CE38" t="n">
-        <v>5.300000000000001</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="CF38" t="n">
         <v>104.7</v>
@@ -21322,7 +21322,7 @@
         <v>15.4</v>
       </c>
       <c r="CT38" t="n">
-        <v>86.19999999999982</v>
+        <v>81.99999999999963</v>
       </c>
       <c r="CU38" t="n">
         <v>1041.2</v>
@@ -21331,7 +21331,7 @@
         <v>18.8</v>
       </c>
       <c r="CW38" t="n">
-        <v>16</v>
+        <v>12.3</v>
       </c>
       <c r="CX38" t="n">
         <v>580.2</v>
@@ -21340,7 +21340,7 @@
         <v>28.3</v>
       </c>
       <c r="CZ38" t="n">
-        <v>3.599999999999987</v>
+        <v>2.299999999999983</v>
       </c>
       <c r="DA38" t="n">
         <v>172.9</v>
@@ -21349,7 +21349,7 @@
         <v>12.4</v>
       </c>
       <c r="DC38" t="n">
-        <v>33.09999999999999</v>
+        <v>15.59999999999999</v>
       </c>
       <c r="DD38" t="n">
         <v>518.6</v>
@@ -21358,7 +21358,7 @@
         <v>14.3</v>
       </c>
       <c r="DF38" t="n">
-        <v>14.20000000000002</v>
+        <v>10.1</v>
       </c>
       <c r="DG38" t="n">
         <v>361.7</v>
@@ -21385,7 +21385,7 @@
         <v>27.3</v>
       </c>
       <c r="DO38" t="n">
-        <v>7.199999999999999</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="DP38" t="n">
         <v>104.1</v>
@@ -21403,7 +21403,7 @@
         <v>22.3</v>
       </c>
       <c r="DU38" t="n">
-        <v>1.399999999999999</v>
+        <v>0.09999999999999809</v>
       </c>
       <c r="DV38" t="n">
         <v>72</v>
@@ -21581,7 +21581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>84.5</v>
+        <v>50.40000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>831.6</v>
@@ -21590,7 +21590,7 @@
         <v>29.8</v>
       </c>
       <c r="E39" t="n">
-        <v>32</v>
+        <v>24.00000000000003</v>
       </c>
       <c r="F39" t="n">
         <v>211.2</v>
@@ -21599,7 +21599,7 @@
         <v>26.8</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7000000000000028</v>
+        <v>0.400000000000004</v>
       </c>
       <c r="I39" t="n">
         <v>27.8</v>
@@ -21608,7 +21608,7 @@
         <v>21.4</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="L39" t="n">
         <v>0.2</v>
@@ -21617,7 +21617,7 @@
         <v>-33.3</v>
       </c>
       <c r="N39" t="n">
-        <v>85.10000000000002</v>
+        <v>80</v>
       </c>
       <c r="O39" t="n">
         <v>541.5</v>
@@ -21626,7 +21626,7 @@
         <v>11.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>2350.1</v>
+        <v>1908.099999999999</v>
       </c>
       <c r="R39" t="n">
         <v>15028.8</v>
@@ -21635,7 +21635,7 @@
         <v>17</v>
       </c>
       <c r="T39" t="n">
-        <v>167.8999999999999</v>
+        <v>148.2999999999999</v>
       </c>
       <c r="U39" t="n">
         <v>1051.8</v>
@@ -21653,7 +21653,7 @@
         <v>21.8</v>
       </c>
       <c r="Z39" t="n">
-        <v>352.4000000000001</v>
+        <v>247.4999999999998</v>
       </c>
       <c r="AA39" t="n">
         <v>2348.5</v>
@@ -21662,7 +21662,7 @@
         <v>17.9</v>
       </c>
       <c r="AC39" t="n">
-        <v>15.2</v>
+        <v>13.7</v>
       </c>
       <c r="AD39" t="n">
         <v>93.59999999999999</v>
@@ -21680,7 +21680,7 @@
         <v>29.9</v>
       </c>
       <c r="AI39" t="n">
-        <v>2464.199999999999</v>
+        <v>2003.4</v>
       </c>
       <c r="AJ39" t="n">
         <v>15727</v>
@@ -21689,7 +21689,7 @@
         <v>16.8</v>
       </c>
       <c r="AL39" t="n">
-        <v>4.300000000000001</v>
+        <v>3.300000000000002</v>
       </c>
       <c r="AM39" t="n">
         <v>31.1</v>
@@ -21698,7 +21698,7 @@
         <v>43.3</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.1000000000000005</v>
       </c>
       <c r="AP39" t="n">
         <v>1.7</v>
@@ -21707,7 +21707,7 @@
         <v>21.4</v>
       </c>
       <c r="AR39" t="n">
-        <v>25</v>
+        <v>17.40000000000001</v>
       </c>
       <c r="AS39" t="n">
         <v>175.1</v>
@@ -21716,7 +21716,7 @@
         <v>21.7</v>
       </c>
       <c r="AU39" t="n">
-        <v>27.30000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="AV39" t="n">
         <v>203.8</v>
@@ -21725,7 +21725,7 @@
         <v>20.4</v>
       </c>
       <c r="AX39" t="n">
-        <v>2.4</v>
+        <v>1.900000000000002</v>
       </c>
       <c r="AY39" t="n">
         <v>12.6</v>
@@ -21743,7 +21743,7 @@
         <v>17.9</v>
       </c>
       <c r="BD39" t="n">
-        <v>64.5</v>
+        <v>56.99999999999994</v>
       </c>
       <c r="BE39" t="n">
         <v>401</v>
@@ -21752,7 +21752,7 @@
         <v>17.1</v>
       </c>
       <c r="BG39" t="n">
-        <v>12.60000000000001</v>
+        <v>11.20000000000001</v>
       </c>
       <c r="BH39" t="n">
         <v>79.8</v>
@@ -21770,7 +21770,7 @@
         <v>9.5</v>
       </c>
       <c r="BM39" t="n">
-        <v>1.199999999999999</v>
+        <v>0.2999999999999934</v>
       </c>
       <c r="BN39" t="n">
         <v>66</v>
@@ -21779,7 +21779,7 @@
         <v>10.4</v>
       </c>
       <c r="BP39" t="n">
-        <v>50.19999999999999</v>
+        <v>38.69999999999999</v>
       </c>
       <c r="BQ39" t="n">
         <v>291.5</v>
@@ -21788,7 +21788,7 @@
         <v>9.5</v>
       </c>
       <c r="BS39" t="n">
-        <v>19.5</v>
+        <v>17.79999999999999</v>
       </c>
       <c r="BT39" t="n">
         <v>132.7</v>
@@ -21797,7 +21797,7 @@
         <v>15</v>
       </c>
       <c r="BV39" t="n">
-        <v>37.40000000000001</v>
+        <v>32.70000000000005</v>
       </c>
       <c r="BW39" t="n">
         <v>246.9</v>
@@ -21806,7 +21806,7 @@
         <v>13.2</v>
       </c>
       <c r="BY39" t="n">
-        <v>5.299999999999997</v>
+        <v>3.599999999999994</v>
       </c>
       <c r="BZ39" t="n">
         <v>34.5</v>
@@ -21815,7 +21815,7 @@
         <v>5.8</v>
       </c>
       <c r="CB39" t="n">
-        <v>192.7</v>
+        <v>154.6</v>
       </c>
       <c r="CC39" t="n">
         <v>1260.1</v>
@@ -21824,7 +21824,7 @@
         <v>25.3</v>
       </c>
       <c r="CE39" t="n">
-        <v>21.7</v>
+        <v>16.4</v>
       </c>
       <c r="CF39" t="n">
         <v>132.2</v>
@@ -21851,7 +21851,7 @@
         <v>15.1</v>
       </c>
       <c r="CN39" t="n">
-        <v>35.60000000000002</v>
+        <v>29.30000000000003</v>
       </c>
       <c r="CO39" t="n">
         <v>218.7</v>
@@ -21860,7 +21860,7 @@
         <v>17.8</v>
       </c>
       <c r="CQ39" t="n">
-        <v>38.19999999999999</v>
+        <v>32.09999999999997</v>
       </c>
       <c r="CR39" t="n">
         <v>246.3</v>
@@ -21869,7 +21869,7 @@
         <v>15.2</v>
       </c>
       <c r="CT39" t="n">
-        <v>204.7</v>
+        <v>118.5000000000002</v>
       </c>
       <c r="CU39" t="n">
         <v>1338.2</v>
@@ -21878,7 +21878,7 @@
         <v>16.1</v>
       </c>
       <c r="CW39" t="n">
-        <v>115.1999999999999</v>
+        <v>99.1999999999999</v>
       </c>
       <c r="CX39" t="n">
         <v>720.3</v>
@@ -21887,7 +21887,7 @@
         <v>24.8</v>
       </c>
       <c r="CZ39" t="n">
-        <v>32.39999999999998</v>
+        <v>28.79999999999999</v>
       </c>
       <c r="DA39" t="n">
         <v>212.9</v>
@@ -21896,7 +21896,7 @@
         <v>11</v>
       </c>
       <c r="DC39" t="n">
-        <v>108.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="DD39" t="n">
         <v>649.7</v>
@@ -21905,7 +21905,7 @@
         <v>10.7</v>
       </c>
       <c r="DF39" t="n">
-        <v>76.59999999999997</v>
+        <v>62.39999999999995</v>
       </c>
       <c r="DG39" t="n">
         <v>451.3</v>
@@ -21914,7 +21914,7 @@
         <v>11.1</v>
       </c>
       <c r="DI39" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="DJ39" t="n">
         <v>7.8</v>
@@ -21923,7 +21923,7 @@
         <v>14.7</v>
       </c>
       <c r="DL39" t="n">
-        <v>68.19999999999999</v>
+        <v>57.69999999999999</v>
       </c>
       <c r="DM39" t="n">
         <v>422.7</v>
@@ -21932,7 +21932,7 @@
         <v>24.1</v>
       </c>
       <c r="DO39" t="n">
-        <v>21.59999999999999</v>
+        <v>14.39999999999999</v>
       </c>
       <c r="DP39" t="n">
         <v>129.7</v>
@@ -21941,7 +21941,7 @@
         <v>16.8</v>
       </c>
       <c r="DR39" t="n">
-        <v>171.1</v>
+        <v>156.3000000000002</v>
       </c>
       <c r="DS39" t="n">
         <v>982.5</v>
@@ -21950,7 +21950,7 @@
         <v>19</v>
       </c>
       <c r="DU39" t="n">
-        <v>15.5</v>
+        <v>14.1</v>
       </c>
       <c r="DV39" t="n">
         <v>90.8</v>
@@ -21959,7 +21959,7 @@
         <v>13.1</v>
       </c>
       <c r="DX39" t="n">
-        <v>134.1999999999999</v>
+        <v>113.9</v>
       </c>
       <c r="DY39" t="n">
         <v>880</v>
@@ -21977,7 +21977,7 @@
         <v>18</v>
       </c>
       <c r="ED39" t="n">
-        <v>5.599999999999998</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="EE39" t="n">
         <v>36.2</v>
@@ -22146,7 +22146,7 @@
         <v>25.2</v>
       </c>
       <c r="H40" t="n">
-        <v>4.600000000000001</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="I40" t="n">
         <v>33.3</v>
@@ -22191,7 +22191,7 @@
         <v>12.2</v>
       </c>
       <c r="W40" t="n">
-        <v>6.199999999999996</v>
+        <v>5.999999999999993</v>
       </c>
       <c r="X40" t="n">
         <v>51.4</v>
@@ -22218,7 +22218,7 @@
         <v>17.6</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.399999999999991</v>
+        <v>0.2999999999999821</v>
       </c>
       <c r="AG40" t="n">
         <v>180.6</v>
@@ -22281,7 +22281,7 @@
         <v>-5.8</v>
       </c>
       <c r="BA40" t="n">
-        <v>15.10000000000001</v>
+        <v>14.80000000000002</v>
       </c>
       <c r="BB40" t="n">
         <v>103.3</v>
@@ -22308,7 +22308,7 @@
         <v>13.3</v>
       </c>
       <c r="BJ40" t="n">
-        <v>166.9000000000001</v>
+        <v>158.0000000000002</v>
       </c>
       <c r="BK40" t="n">
         <v>1166.9</v>
@@ -22317,7 +22317,7 @@
         <v>4.6</v>
       </c>
       <c r="BM40" t="n">
-        <v>10.8</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="BN40" t="n">
         <v>79.40000000000001</v>
@@ -22380,7 +22380,7 @@
         <v>8.9</v>
       </c>
       <c r="CH40" t="n">
-        <v>31.80000000000001</v>
+        <v>30.89999999999998</v>
       </c>
       <c r="CI40" t="n">
         <v>217.9</v>
@@ -22389,7 +22389,7 @@
         <v>0.2</v>
       </c>
       <c r="CK40" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="CL40" t="n">
         <v>21.3</v>
@@ -22461,7 +22461,7 @@
         <v>8.9</v>
       </c>
       <c r="DI40" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="DJ40" t="n">
         <v>9.699999999999999</v>
@@ -22684,7 +22684,7 @@
         <v>18.7</v>
       </c>
       <c r="E41" t="n">
-        <v>4.799999999999962</v>
+        <v>4.49999999999995</v>
       </c>
       <c r="F41" t="n">
         <v>285.9</v>
@@ -22711,7 +22711,7 @@
         <v>-33.3</v>
       </c>
       <c r="N41" t="n">
-        <v>12</v>
+        <v>9.800000000000068</v>
       </c>
       <c r="O41" t="n">
         <v>718.8</v>
@@ -22720,7 +22720,7 @@
         <v>9</v>
       </c>
       <c r="Q41" t="n">
-        <v>363.5000000000032</v>
+        <v>316.5000000000041</v>
       </c>
       <c r="R41" t="n">
         <v>19896.2</v>
@@ -22747,7 +22747,7 @@
         <v>22</v>
       </c>
       <c r="Z41" t="n">
-        <v>56.40000000000009</v>
+        <v>42.20000000000027</v>
       </c>
       <c r="AA41" t="n">
         <v>3103.2</v>
@@ -22756,7 +22756,7 @@
         <v>14.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>2.599999999999991</v>
+        <v>1.79999999999999</v>
       </c>
       <c r="AD41" t="n">
         <v>125.3</v>
@@ -22774,7 +22774,7 @@
         <v>24.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>362.5000000000009</v>
+        <v>299.2999999999997</v>
       </c>
       <c r="AJ41" t="n">
         <v>20822.7</v>
@@ -22801,7 +22801,7 @@
         <v>10.5</v>
       </c>
       <c r="AR41" t="n">
-        <v>5.799999999999983</v>
+        <v>3.299999999999983</v>
       </c>
       <c r="AS41" t="n">
         <v>235.6</v>
@@ -22819,7 +22819,7 @@
         <v>18</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.1000000000000032</v>
       </c>
       <c r="AY41" t="n">
         <v>16.9</v>
@@ -22837,7 +22837,7 @@
         <v>13.2</v>
       </c>
       <c r="BD41" t="n">
-        <v>7</v>
+        <v>5.100000000000023</v>
       </c>
       <c r="BE41" t="n">
         <v>533.2</v>
@@ -22873,7 +22873,7 @@
         <v>12.5</v>
       </c>
       <c r="BP41" t="n">
-        <v>53.40000000000003</v>
+        <v>39.70000000000004</v>
       </c>
       <c r="BQ41" t="n">
         <v>386.6</v>
@@ -22882,7 +22882,7 @@
         <v>1.6</v>
       </c>
       <c r="BS41" t="n">
-        <v>2.500000000000032</v>
+        <v>1.700000000000053</v>
       </c>
       <c r="BT41" t="n">
         <v>177.3</v>
@@ -22891,7 +22891,7 @@
         <v>14.2</v>
       </c>
       <c r="BV41" t="n">
-        <v>5.900000000000034</v>
+        <v>4.600000000000058</v>
       </c>
       <c r="BW41" t="n">
         <v>330.7</v>
@@ -22900,7 +22900,7 @@
         <v>12.4</v>
       </c>
       <c r="BY41" t="n">
-        <v>2.500000000000007</v>
+        <v>1.900000000000006</v>
       </c>
       <c r="BZ41" t="n">
         <v>45.4</v>
@@ -22909,7 +22909,7 @@
         <v>3.7</v>
       </c>
       <c r="CB41" t="n">
-        <v>62.10000000000008</v>
+        <v>50.70000000000016</v>
       </c>
       <c r="CC41" t="n">
         <v>1684</v>
@@ -22936,7 +22936,7 @@
         <v>-1.4</v>
       </c>
       <c r="CK41" t="n">
-        <v>2.600000000000001</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="CL41" t="n">
         <v>24</v>
@@ -22945,7 +22945,7 @@
         <v>11.6</v>
       </c>
       <c r="CN41" t="n">
-        <v>4.60000000000008</v>
+        <v>2.10000000000013</v>
       </c>
       <c r="CO41" t="n">
         <v>295</v>
@@ -22954,7 +22954,7 @@
         <v>13.7</v>
       </c>
       <c r="CQ41" t="n">
-        <v>5.600000000000023</v>
+        <v>5.300000000000011</v>
       </c>
       <c r="CR41" t="n">
         <v>328.7</v>
@@ -22963,7 +22963,7 @@
         <v>13.1</v>
       </c>
       <c r="CT41" t="n">
-        <v>48.1999999999999</v>
+        <v>46.6999999999999</v>
       </c>
       <c r="CU41" t="n">
         <v>1791.4</v>
@@ -22999,7 +22999,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="DF41" t="n">
-        <v>84.70000000000005</v>
+        <v>69.70000000000005</v>
       </c>
       <c r="DG41" t="n">
         <v>595.9</v>
@@ -23017,7 +23017,7 @@
         <v>9.1</v>
       </c>
       <c r="DL41" t="n">
-        <v>8.099999999999966</v>
+        <v>6.699999999999932</v>
       </c>
       <c r="DM41" t="n">
         <v>569.2</v>
@@ -23026,7 +23026,7 @@
         <v>19</v>
       </c>
       <c r="DO41" t="n">
-        <v>8.89999999999997</v>
+        <v>7.79999999999994</v>
       </c>
       <c r="DP41" t="n">
         <v>177.1</v>
@@ -23044,7 +23044,7 @@
         <v>14</v>
       </c>
       <c r="DU41" t="n">
-        <v>2.70000000000001</v>
+        <v>2.000000000000011</v>
       </c>
       <c r="DV41" t="n">
         <v>116.9</v>
@@ -23053,7 +23053,7 @@
         <v>4.4</v>
       </c>
       <c r="DX41" t="n">
-        <v>13.9000000000002</v>
+        <v>9.900000000000199</v>
       </c>
       <c r="DY41" t="n">
         <v>1161</v>
@@ -23062,7 +23062,7 @@
         <v>4.9</v>
       </c>
       <c r="EA41" t="n">
-        <v>4.399999999999977</v>
+        <v>1.899999999999977</v>
       </c>
       <c r="EB41" t="n">
         <v>447.8</v>
@@ -23222,7 +23222,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>117</v>
+        <v>109.9</v>
       </c>
       <c r="C42" t="n">
         <v>1130.3</v>
@@ -23231,7 +23231,7 @@
         <v>17.5</v>
       </c>
       <c r="E42" t="n">
-        <v>34.20000000000005</v>
+        <v>29.40000000000009</v>
       </c>
       <c r="F42" t="n">
         <v>326</v>
@@ -23249,7 +23249,7 @@
         <v>16.3</v>
       </c>
       <c r="K42" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L42" t="n">
         <v>0.3</v>
@@ -23258,7 +23258,7 @@
         <v>-25</v>
       </c>
       <c r="N42" t="n">
-        <v>93.70000000000005</v>
+        <v>81.70000000000005</v>
       </c>
       <c r="O42" t="n">
         <v>810.4</v>
@@ -23267,7 +23267,7 @@
         <v>6.8</v>
       </c>
       <c r="Q42" t="n">
-        <v>2495.899999999998</v>
+        <v>2132.399999999995</v>
       </c>
       <c r="R42" t="n">
         <v>22537.5</v>
@@ -23276,7 +23276,7 @@
         <v>10.7</v>
       </c>
       <c r="T42" t="n">
-        <v>179.2</v>
+        <v>157.1000000000003</v>
       </c>
       <c r="U42" t="n">
         <v>1569.5</v>
@@ -23294,7 +23294,7 @@
         <v>19.7</v>
       </c>
       <c r="Z42" t="n">
-        <v>360.6999999999998</v>
+        <v>304.2999999999997</v>
       </c>
       <c r="AA42" t="n">
         <v>3536.9</v>
@@ -23303,7 +23303,7 @@
         <v>12.9</v>
       </c>
       <c r="AC42" t="n">
-        <v>17.70000000000002</v>
+        <v>15.10000000000003</v>
       </c>
       <c r="AD42" t="n">
         <v>142.3</v>
@@ -23312,7 +23312,7 @@
         <v>11.1</v>
       </c>
       <c r="AF42" t="n">
-        <v>26</v>
+        <v>25.09999999999999</v>
       </c>
       <c r="AG42" t="n">
         <v>236.3</v>
@@ -23321,7 +23321,7 @@
         <v>22.2</v>
       </c>
       <c r="AI42" t="n">
-        <v>2618.599999999999</v>
+        <v>2256.099999999998</v>
       </c>
       <c r="AJ42" t="n">
         <v>23608.9</v>
@@ -23339,7 +23339,7 @@
         <v>32.3</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.09999999999999959</v>
+        <v>0.09999999999999909</v>
       </c>
       <c r="AP42" t="n">
         <v>2.4</v>
@@ -23348,7 +23348,7 @@
         <v>9.1</v>
       </c>
       <c r="AR42" t="n">
-        <v>25.80000000000001</v>
+        <v>20.00000000000003</v>
       </c>
       <c r="AS42" t="n">
         <v>267.9</v>
@@ -23357,7 +23357,7 @@
         <v>16.6</v>
       </c>
       <c r="AU42" t="n">
-        <v>32.40000000000003</v>
+        <v>29.10000000000002</v>
       </c>
       <c r="AV42" t="n">
         <v>303.8</v>
@@ -23366,7 +23366,7 @@
         <v>16.3</v>
       </c>
       <c r="AX42" t="n">
-        <v>2.199999999999999</v>
+        <v>1.799999999999997</v>
       </c>
       <c r="AY42" t="n">
         <v>19.2</v>
@@ -23384,7 +23384,7 @@
         <v>10.6</v>
       </c>
       <c r="BD42" t="n">
-        <v>68.90000000000009</v>
+        <v>61.90000000000009</v>
       </c>
       <c r="BE42" t="n">
         <v>601.5</v>
@@ -23402,7 +23402,7 @@
         <v>13.8</v>
       </c>
       <c r="BJ42" t="n">
-        <v>211.5</v>
+        <v>165</v>
       </c>
       <c r="BK42" t="n">
         <v>1473</v>
@@ -23411,7 +23411,7 @@
         <v>-1.5</v>
       </c>
       <c r="BM42" t="n">
-        <v>11.7</v>
+        <v>9.099999999999991</v>
       </c>
       <c r="BN42" t="n">
         <v>107</v>
@@ -23429,7 +23429,7 @@
         <v>3.8</v>
       </c>
       <c r="BS42" t="n">
-        <v>21.19999999999999</v>
+        <v>18.69999999999996</v>
       </c>
       <c r="BT42" t="n">
         <v>201.6</v>
@@ -23438,7 +23438,7 @@
         <v>13.3</v>
       </c>
       <c r="BV42" t="n">
-        <v>40.30000000000001</v>
+        <v>34.39999999999998</v>
       </c>
       <c r="BW42" t="n">
         <v>378.8</v>
@@ -23447,7 +23447,7 @@
         <v>11.8</v>
       </c>
       <c r="BY42" t="n">
-        <v>5.199999999999996</v>
+        <v>2.699999999999989</v>
       </c>
       <c r="BZ42" t="n">
         <v>53.6</v>
@@ -23456,7 +23456,7 @@
         <v>2.7</v>
       </c>
       <c r="CB42" t="n">
-        <v>196.7</v>
+        <v>134.5999999999999</v>
       </c>
       <c r="CC42" t="n">
         <v>1936.9</v>
@@ -23465,7 +23465,7 @@
         <v>16.1</v>
       </c>
       <c r="CE42" t="n">
-        <v>22.30000000000001</v>
+        <v>19.59999999999999</v>
       </c>
       <c r="CF42" t="n">
         <v>205.6</v>
@@ -23474,7 +23474,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="CH42" t="n">
-        <v>33.69999999999999</v>
+        <v>29.60000000000002</v>
       </c>
       <c r="CI42" t="n">
         <v>275.4</v>
@@ -23492,7 +23492,7 @@
         <v>14.1</v>
       </c>
       <c r="CN42" t="n">
-        <v>42.19999999999999</v>
+        <v>37.59999999999991</v>
       </c>
       <c r="CO42" t="n">
         <v>336.4</v>
@@ -23510,7 +23510,7 @@
         <v>11.7</v>
       </c>
       <c r="CT42" t="n">
-        <v>212.5</v>
+        <v>164.3000000000001</v>
       </c>
       <c r="CU42" t="n">
         <v>2045.9</v>
@@ -23519,7 +23519,7 @@
         <v>12.5</v>
       </c>
       <c r="CW42" t="n">
-        <v>122.6999999999999</v>
+        <v>105.7</v>
       </c>
       <c r="CX42" t="n">
         <v>1106.2</v>
@@ -23564,7 +23564,7 @@
         <v>7</v>
       </c>
       <c r="DL42" t="n">
-        <v>74.70000000000005</v>
+        <v>66.60000000000008</v>
       </c>
       <c r="DM42" t="n">
         <v>647.2</v>
@@ -23573,7 +23573,7 @@
         <v>16.4</v>
       </c>
       <c r="DO42" t="n">
-        <v>21.79999999999998</v>
+        <v>12.90000000000001</v>
       </c>
       <c r="DP42" t="n">
         <v>202.1</v>
@@ -23582,7 +23582,7 @@
         <v>8.1</v>
       </c>
       <c r="DR42" t="n">
-        <v>187.8999999999999</v>
+        <v>161.2</v>
       </c>
       <c r="DS42" t="n">
         <v>1518</v>
@@ -23591,7 +23591,7 @@
         <v>11.4</v>
       </c>
       <c r="DU42" t="n">
-        <v>18.40000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="DV42" t="n">
         <v>136.2</v>
@@ -23600,7 +23600,7 @@
         <v>4</v>
       </c>
       <c r="DX42" t="n">
-        <v>134.8</v>
+        <v>120.8999999999998</v>
       </c>
       <c r="DY42" t="n">
         <v>1320.7</v>
@@ -23618,7 +23618,7 @@
         <v>3.5</v>
       </c>
       <c r="ED42" t="n">
-        <v>5.600000000000001</v>
+        <v>4.700000000000003</v>
       </c>
       <c r="EE42" t="n">
         <v>56.6</v>
@@ -23787,7 +23787,7 @@
         <v>19.7</v>
       </c>
       <c r="H43" t="n">
-        <v>4.399999999999999</v>
+        <v>4.399999999999991</v>
       </c>
       <c r="I43" t="n">
         <v>48.5</v>
@@ -23796,7 +23796,7 @@
         <v>14.9</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L43" t="n">
         <v>0.3</v>
@@ -23832,7 +23832,7 @@
         <v>7.3</v>
       </c>
       <c r="W43" t="n">
-        <v>0.6000000000000085</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="X43" t="n">
         <v>73.5</v>
@@ -23886,7 +23886,7 @@
         <v>28.6</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.3000000000000003</v>
       </c>
       <c r="AP43" t="n">
         <v>2.7</v>
@@ -23922,7 +23922,7 @@
         <v>-7.2</v>
       </c>
       <c r="BA43" t="n">
-        <v>1.099999999999991</v>
+        <v>0.7999999999999796</v>
       </c>
       <c r="BB43" t="n">
         <v>152.3</v>
@@ -24048,7 +24048,7 @@
         <v>9.6</v>
       </c>
       <c r="CQ43" t="n">
-        <v>4.699999999999989</v>
+        <v>2.600000000000023</v>
       </c>
       <c r="CR43" t="n">
         <v>420.9</v>
@@ -24075,7 +24075,7 @@
         <v>15.7</v>
       </c>
       <c r="CZ43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DA43" t="n">
         <v>353.8</v>
@@ -24156,7 +24156,7 @@
         <v>4</v>
       </c>
       <c r="EA43" t="n">
-        <v>2.599999999999909</v>
+        <v>2.199999999999818</v>
       </c>
       <c r="EB43" t="n">
         <v>554.8</v>
@@ -24316,7 +24316,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.39999999999992</v>
+        <v>59.99999999999983</v>
       </c>
       <c r="C44" t="n">
         <v>1372.7</v>
@@ -24325,7 +24325,7 @@
         <v>13.6</v>
       </c>
       <c r="E44" t="n">
-        <v>25.60000000000002</v>
+        <v>21.7000000000001</v>
       </c>
       <c r="F44" t="n">
         <v>402.2</v>
@@ -24352,7 +24352,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>22.29999999999993</v>
+        <v>21.6</v>
       </c>
       <c r="O44" t="n">
         <v>998.8</v>
@@ -24361,7 +24361,7 @@
         <v>5.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>849.0999999999976</v>
+        <v>611.7999999999943</v>
       </c>
       <c r="R44" t="n">
         <v>27661.7</v>
@@ -24370,7 +24370,7 @@
         <v>8.1</v>
       </c>
       <c r="T44" t="n">
-        <v>18.69999999999999</v>
+        <v>7.899999999999979</v>
       </c>
       <c r="U44" t="n">
         <v>1926.1</v>
@@ -24379,7 +24379,7 @@
         <v>6.1</v>
       </c>
       <c r="W44" t="n">
-        <v>2.799999999999981</v>
+        <v>2.199999999999973</v>
       </c>
       <c r="X44" t="n">
         <v>80</v>
@@ -24388,7 +24388,7 @@
         <v>13.6</v>
       </c>
       <c r="Z44" t="n">
-        <v>114.2999999999997</v>
+        <v>52.69999999999934</v>
       </c>
       <c r="AA44" t="n">
         <v>4236.9</v>
@@ -24397,7 +24397,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC44" t="n">
-        <v>6.10000000000003</v>
+        <v>5.500000000000071</v>
       </c>
       <c r="AD44" t="n">
         <v>178.8</v>
@@ -24406,7 +24406,7 @@
         <v>9</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.800000000000011</v>
+        <v>7.800000000000011</v>
       </c>
       <c r="AG44" t="n">
         <v>291.4</v>
@@ -24415,7 +24415,7 @@
         <v>17.8</v>
       </c>
       <c r="AI44" t="n">
-        <v>889.900000000001</v>
+        <v>643.5</v>
       </c>
       <c r="AJ44" t="n">
         <v>28981.5</v>
@@ -24424,7 +24424,7 @@
         <v>8</v>
       </c>
       <c r="AL44" t="n">
-        <v>2.599999999999994</v>
+        <v>2.599999999999987</v>
       </c>
       <c r="AM44" t="n">
         <v>62.7</v>
@@ -24433,7 +24433,7 @@
         <v>26.7</v>
       </c>
       <c r="AO44" t="n">
-        <v>0.5</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="AP44" t="n">
         <v>4.4</v>
@@ -24442,7 +24442,7 @@
         <v>46.7</v>
       </c>
       <c r="AR44" t="n">
-        <v>7</v>
+        <v>4.100000000000023</v>
       </c>
       <c r="AS44" t="n">
         <v>326.6</v>
@@ -24451,7 +24451,7 @@
         <v>14.9</v>
       </c>
       <c r="AU44" t="n">
-        <v>21.30000000000008</v>
+        <v>19.40000000000016</v>
       </c>
       <c r="AV44" t="n">
         <v>371</v>
@@ -24460,7 +24460,7 @@
         <v>13.1</v>
       </c>
       <c r="AX44" t="n">
-        <v>1.000000000000003</v>
+        <v>0.3000000000000029</v>
       </c>
       <c r="AY44" t="n">
         <v>24</v>
@@ -24469,7 +24469,7 @@
         <v>-9.1</v>
       </c>
       <c r="BA44" t="n">
-        <v>5.000000000000028</v>
+        <v>3.900000000000038</v>
       </c>
       <c r="BB44" t="n">
         <v>172.1</v>
@@ -24478,7 +24478,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BD44" t="n">
-        <v>21.70000000000005</v>
+        <v>18.40000000000021</v>
       </c>
       <c r="BE44" t="n">
         <v>747.4</v>
@@ -24487,7 +24487,7 @@
         <v>8.6</v>
       </c>
       <c r="BG44" t="n">
-        <v>10.19999999999998</v>
+        <v>9.69999999999998</v>
       </c>
       <c r="BH44" t="n">
         <v>155</v>
@@ -24505,7 +24505,7 @@
         <v>-5.1</v>
       </c>
       <c r="BM44" t="n">
-        <v>11.70000000000002</v>
+        <v>10.70000000000003</v>
       </c>
       <c r="BN44" t="n">
         <v>135.6</v>
@@ -24523,7 +24523,7 @@
         <v>2.4</v>
       </c>
       <c r="BS44" t="n">
-        <v>16.39999999999997</v>
+        <v>13.89999999999994</v>
       </c>
       <c r="BT44" t="n">
         <v>247.9</v>
@@ -24532,7 +24532,7 @@
         <v>11.2</v>
       </c>
       <c r="BV44" t="n">
-        <v>30.60000000000009</v>
+        <v>26.10000000000015</v>
       </c>
       <c r="BW44" t="n">
         <v>466.1</v>
@@ -24541,7 +24541,7 @@
         <v>10</v>
       </c>
       <c r="BY44" t="n">
-        <v>4.000000000000004</v>
+        <v>2.500000000000004</v>
       </c>
       <c r="BZ44" t="n">
         <v>63.2</v>
@@ -24550,7 +24550,7 @@
         <v>-1.4</v>
       </c>
       <c r="CB44" t="n">
-        <v>101.8999999999999</v>
+        <v>59.39999999999991</v>
       </c>
       <c r="CC44" t="n">
         <v>2392.6</v>
@@ -24559,7 +24559,7 @@
         <v>13.7</v>
       </c>
       <c r="CE44" t="n">
-        <v>1.5</v>
+        <v>0.100000000000023</v>
       </c>
       <c r="CF44" t="n">
         <v>259</v>
@@ -24577,7 +24577,7 @@
         <v>-4.7</v>
       </c>
       <c r="CK44" t="n">
-        <v>1.400000000000002</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="CL44" t="n">
         <v>33.8</v>
@@ -24586,7 +24586,7 @@
         <v>11.9</v>
       </c>
       <c r="CN44" t="n">
-        <v>8.300000000000011</v>
+        <v>6.800000000000011</v>
       </c>
       <c r="CO44" t="n">
         <v>419.7</v>
@@ -24595,7 +24595,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="CQ44" t="n">
-        <v>8.600000000000023</v>
+        <v>3.900000000000034</v>
       </c>
       <c r="CR44" t="n">
         <v>473.9</v>
@@ -24604,7 +24604,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CT44" t="n">
-        <v>170.3999999999996</v>
+        <v>153.6999999999993</v>
       </c>
       <c r="CU44" t="n">
         <v>2538.8</v>
@@ -24613,7 +24613,7 @@
         <v>12.3</v>
       </c>
       <c r="CW44" t="n">
-        <v>53</v>
+        <v>44.49999999999991</v>
       </c>
       <c r="CX44" t="n">
         <v>1360.7</v>
@@ -24640,7 +24640,7 @@
         <v>7.2</v>
       </c>
       <c r="DF44" t="n">
-        <v>10.20000000000005</v>
+        <v>5.600000000000028</v>
       </c>
       <c r="DG44" t="n">
         <v>853.8</v>
@@ -24649,7 +24649,7 @@
         <v>3.1</v>
       </c>
       <c r="DI44" t="n">
-        <v>0.3000000000000009</v>
+        <v>0.2000000000000019</v>
       </c>
       <c r="DJ44" t="n">
         <v>15.4</v>
@@ -24658,7 +24658,7 @@
         <v>4.8</v>
       </c>
       <c r="DL44" t="n">
-        <v>18.90000000000009</v>
+        <v>8.500000000000231</v>
       </c>
       <c r="DM44" t="n">
         <v>803</v>
@@ -24667,7 +24667,7 @@
         <v>12.2</v>
       </c>
       <c r="DO44" t="n">
-        <v>13.49999999999995</v>
+        <v>10.69999999999991</v>
       </c>
       <c r="DP44" t="n">
         <v>251.7</v>
@@ -24676,7 +24676,7 @@
         <v>7.9</v>
       </c>
       <c r="DR44" t="n">
-        <v>45.5</v>
+        <v>30.39999999999989</v>
       </c>
       <c r="DS44" t="n">
         <v>1895.1</v>
@@ -24694,7 +24694,7 @@
         <v>2.1</v>
       </c>
       <c r="DX44" t="n">
-        <v>25.39999999999998</v>
+        <v>16.39999999999998</v>
       </c>
       <c r="DY44" t="n">
         <v>1593.4</v>
@@ -24703,7 +24703,7 @@
         <v>3.6</v>
       </c>
       <c r="EA44" t="n">
-        <v>14.79999999999995</v>
+        <v>12.20000000000004</v>
       </c>
       <c r="EB44" t="n">
         <v>607.1</v>
@@ -24712,7 +24712,7 @@
         <v>-0.3</v>
       </c>
       <c r="ED44" t="n">
-        <v>5.399999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="EE44" t="n">
         <v>64.59999999999999</v>
